--- a/dependencies/brucella/abortus1/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/brucella/abortus1/script_dependents/Filtered_Regions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\abortus1\script_dependents\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/abortus1/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B8856-BC9B-6147-AF3F-FD3C301A8238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="4665" windowWidth="43395" windowHeight="19125" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6380" yWindow="4660" windowWidth="43400" windowHeight="19120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="gi|62288991|ref|NC_006932.1|" sheetId="2" r:id="rId1"/>
-    <sheet name="gi|62316961|ref|NC_006933.1|" sheetId="1" r:id="rId2"/>
+    <sheet name="NC_006932.1" sheetId="2" r:id="rId1"/>
+    <sheet name="NC_006933.1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -318,7 +319,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1700,8 +1701,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171"/>
-    <cellStyle name="Note 2" xfId="172"/>
+    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -2041,51 +2042,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG174"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="0">
       <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="37" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="41" customWidth="1"/>
-    <col min="8" max="9" width="18.875" style="42" customWidth="1"/>
-    <col min="10" max="10" width="18.875" style="43" customWidth="1"/>
-    <col min="11" max="12" width="18.875" style="44" customWidth="1"/>
-    <col min="13" max="13" width="18.875" style="45" customWidth="1"/>
-    <col min="14" max="14" width="18.875" style="46" customWidth="1"/>
-    <col min="15" max="15" width="18.875" style="47" customWidth="1"/>
-    <col min="16" max="17" width="18.875" style="48" customWidth="1"/>
-    <col min="18" max="18" width="18.875" style="49" customWidth="1"/>
-    <col min="19" max="25" width="18.875" style="57" customWidth="1"/>
-    <col min="26" max="26" width="18.875" style="50" customWidth="1"/>
-    <col min="27" max="30" width="18.875" style="51" customWidth="1"/>
-    <col min="31" max="31" width="18.875" style="36" customWidth="1"/>
-    <col min="32" max="32" width="18.875" style="37" customWidth="1"/>
-    <col min="33" max="33" width="18.875" style="38" customWidth="1"/>
-    <col min="34" max="34" width="18.875" style="39" customWidth="1"/>
-    <col min="35" max="36" width="18.875" style="40" customWidth="1"/>
-    <col min="37" max="37" width="18.875" style="41" customWidth="1"/>
-    <col min="38" max="41" width="18.875" style="42" customWidth="1"/>
-    <col min="42" max="42" width="18.875" style="43" customWidth="1"/>
-    <col min="43" max="44" width="18.875" style="44" customWidth="1"/>
-    <col min="45" max="45" width="18.875" style="45" customWidth="1"/>
-    <col min="46" max="53" width="18.875" style="46" customWidth="1"/>
-    <col min="54" max="54" width="18.875" style="47" customWidth="1"/>
-    <col min="55" max="55" width="18.875" style="48" customWidth="1"/>
-    <col min="56" max="59" width="18.875" style="19" customWidth="1"/>
-    <col min="60" max="16384" width="10.875" style="19"/>
+    <col min="1" max="1" width="18.83203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="41" customWidth="1"/>
+    <col min="8" max="9" width="18.83203125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" style="43" customWidth="1"/>
+    <col min="11" max="12" width="18.83203125" style="44" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="46" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" style="47" customWidth="1"/>
+    <col min="16" max="17" width="18.83203125" style="48" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" style="49" customWidth="1"/>
+    <col min="19" max="25" width="18.83203125" style="57" customWidth="1"/>
+    <col min="26" max="26" width="18.83203125" style="50" customWidth="1"/>
+    <col min="27" max="30" width="18.83203125" style="51" customWidth="1"/>
+    <col min="31" max="31" width="18.83203125" style="36" customWidth="1"/>
+    <col min="32" max="32" width="18.83203125" style="37" customWidth="1"/>
+    <col min="33" max="33" width="18.83203125" style="38" customWidth="1"/>
+    <col min="34" max="34" width="18.83203125" style="39" customWidth="1"/>
+    <col min="35" max="36" width="18.83203125" style="40" customWidth="1"/>
+    <col min="37" max="37" width="18.83203125" style="41" customWidth="1"/>
+    <col min="38" max="41" width="18.83203125" style="42" customWidth="1"/>
+    <col min="42" max="42" width="18.83203125" style="43" customWidth="1"/>
+    <col min="43" max="44" width="18.83203125" style="44" customWidth="1"/>
+    <col min="45" max="45" width="18.83203125" style="45" customWidth="1"/>
+    <col min="46" max="53" width="18.83203125" style="46" customWidth="1"/>
+    <col min="54" max="54" width="18.83203125" style="47" customWidth="1"/>
+    <col min="55" max="55" width="18.83203125" style="48" customWidth="1"/>
+    <col min="56" max="59" width="18.83203125" style="19" customWidth="1"/>
+    <col min="60" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>23</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>24</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
         <v>25</v>
       </c>
@@ -2620,7 +2621,7 @@
       <c r="BB4" s="31"/>
       <c r="BC4" s="32"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>26</v>
       </c>
@@ -2707,7 +2708,7 @@
       <c r="BB5" s="31"/>
       <c r="BC5" s="32"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>1083435</v>
       </c>
@@ -2794,7 +2795,7 @@
       <c r="BB6" s="31"/>
       <c r="BC6" s="32"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>1083439</v>
       </c>
@@ -2880,7 +2881,7 @@
       <c r="BB7" s="31"/>
       <c r="BC7" s="32"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
@@ -2942,7 +2943,7 @@
       <c r="BB8" s="31"/>
       <c r="BC8" s="32"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
@@ -3004,7 +3005,7 @@
       <c r="BB9" s="31"/>
       <c r="BC9" s="32"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
@@ -3062,7 +3063,7 @@
       <c r="BB10" s="31"/>
       <c r="BC10" s="32"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
@@ -3118,7 +3119,7 @@
       <c r="BB11" s="31"/>
       <c r="BC11" s="32"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
@@ -3174,7 +3175,7 @@
       <c r="BB12" s="31"/>
       <c r="BC12" s="32"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -3230,7 +3231,7 @@
       <c r="BB13" s="31"/>
       <c r="BC13" s="32"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
@@ -3286,7 +3287,7 @@
       <c r="BB14" s="31"/>
       <c r="BC14" s="32"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
@@ -3342,7 +3343,7 @@
       <c r="BB15" s="31"/>
       <c r="BC15" s="32"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
@@ -3398,7 +3399,7 @@
       <c r="BB16" s="31"/>
       <c r="BC16" s="32"/>
     </row>
-    <row r="17" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
@@ -3454,7 +3455,7 @@
       <c r="BB17" s="31"/>
       <c r="BC17" s="32"/>
     </row>
-    <row r="18" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -3510,7 +3511,7 @@
       <c r="BB18" s="31"/>
       <c r="BC18" s="32"/>
     </row>
-    <row r="19" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
@@ -3566,7 +3567,7 @@
       <c r="BB19" s="31"/>
       <c r="BC19" s="32"/>
     </row>
-    <row r="20" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
@@ -3622,7 +3623,7 @@
       <c r="BB20" s="31"/>
       <c r="BC20" s="32"/>
     </row>
-    <row r="21" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
@@ -3678,7 +3679,7 @@
       <c r="BB21" s="31"/>
       <c r="BC21" s="32"/>
     </row>
-    <row r="22" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
@@ -3734,7 +3735,7 @@
       <c r="BB22" s="31"/>
       <c r="BC22" s="32"/>
     </row>
-    <row r="23" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
@@ -3790,7 +3791,7 @@
       <c r="BB23" s="31"/>
       <c r="BC23" s="32"/>
     </row>
-    <row r="24" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
@@ -3846,7 +3847,7 @@
       <c r="BB24" s="31"/>
       <c r="BC24" s="32"/>
     </row>
-    <row r="25" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
@@ -3902,7 +3903,7 @@
       <c r="BB25" s="31"/>
       <c r="BC25" s="32"/>
     </row>
-    <row r="26" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
@@ -3958,7 +3959,7 @@
       <c r="BB26" s="31"/>
       <c r="BC26" s="32"/>
     </row>
-    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
@@ -4014,7 +4015,7 @@
       <c r="BB27" s="31"/>
       <c r="BC27" s="32"/>
     </row>
-    <row r="28" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
@@ -4070,7 +4071,7 @@
       <c r="BB28" s="31"/>
       <c r="BC28" s="32"/>
     </row>
-    <row r="29" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
@@ -4126,7 +4127,7 @@
       <c r="BB29" s="31"/>
       <c r="BC29" s="32"/>
     </row>
-    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
@@ -4182,7 +4183,7 @@
       <c r="BB30" s="31"/>
       <c r="BC30" s="32"/>
     </row>
-    <row r="31" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
@@ -4238,7 +4239,7 @@
       <c r="BB31" s="31"/>
       <c r="BC31" s="32"/>
     </row>
-    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
@@ -4294,7 +4295,7 @@
       <c r="BB32" s="31"/>
       <c r="BC32" s="32"/>
     </row>
-    <row r="33" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
@@ -4350,7 +4351,7 @@
       <c r="BB33" s="31"/>
       <c r="BC33" s="32"/>
     </row>
-    <row r="34" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
@@ -4406,7 +4407,7 @@
       <c r="BB34" s="31"/>
       <c r="BC34" s="32"/>
     </row>
-    <row r="35" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
@@ -4462,7 +4463,7 @@
       <c r="BB35" s="31"/>
       <c r="BC35" s="32"/>
     </row>
-    <row r="36" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
@@ -4518,7 +4519,7 @@
       <c r="BB36" s="31"/>
       <c r="BC36" s="32"/>
     </row>
-    <row r="37" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
@@ -4574,7 +4575,7 @@
       <c r="BB37" s="31"/>
       <c r="BC37" s="32"/>
     </row>
-    <row r="38" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
@@ -4630,7 +4631,7 @@
       <c r="BB38" s="31"/>
       <c r="BC38" s="32"/>
     </row>
-    <row r="39" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
@@ -4686,7 +4687,7 @@
       <c r="BB39" s="31"/>
       <c r="BC39" s="32"/>
     </row>
-    <row r="40" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
       <c r="D40" s="22"/>
@@ -4742,7 +4743,7 @@
       <c r="BB40" s="31"/>
       <c r="BC40" s="32"/>
     </row>
-    <row r="41" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
       <c r="D41" s="22"/>
@@ -4798,7 +4799,7 @@
       <c r="BB41" s="31"/>
       <c r="BC41" s="32"/>
     </row>
-    <row r="42" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="22"/>
@@ -4854,7 +4855,7 @@
       <c r="BB42" s="31"/>
       <c r="BC42" s="32"/>
     </row>
-    <row r="43" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
@@ -4910,7 +4911,7 @@
       <c r="BB43" s="31"/>
       <c r="BC43" s="32"/>
     </row>
-    <row r="44" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
@@ -4966,7 +4967,7 @@
       <c r="BB44" s="31"/>
       <c r="BC44" s="32"/>
     </row>
-    <row r="45" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="22"/>
@@ -5022,7 +5023,7 @@
       <c r="BB45" s="31"/>
       <c r="BC45" s="32"/>
     </row>
-    <row r="46" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
@@ -5078,7 +5079,7 @@
       <c r="BB46" s="31"/>
       <c r="BC46" s="32"/>
     </row>
-    <row r="47" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
       <c r="D47" s="22"/>
@@ -5134,7 +5135,7 @@
       <c r="BB47" s="31"/>
       <c r="BC47" s="32"/>
     </row>
-    <row r="48" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
@@ -5190,7 +5191,7 @@
       <c r="BB48" s="31"/>
       <c r="BC48" s="32"/>
     </row>
-    <row r="49" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
@@ -5246,7 +5247,7 @@
       <c r="BB49" s="31"/>
       <c r="BC49" s="32"/>
     </row>
-    <row r="50" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="22"/>
@@ -5302,7 +5303,7 @@
       <c r="BB50" s="31"/>
       <c r="BC50" s="32"/>
     </row>
-    <row r="51" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
@@ -5358,7 +5359,7 @@
       <c r="BB51" s="31"/>
       <c r="BC51" s="32"/>
     </row>
-    <row r="52" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="22"/>
@@ -5414,7 +5415,7 @@
       <c r="BB52" s="31"/>
       <c r="BC52" s="32"/>
     </row>
-    <row r="53" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
@@ -5470,7 +5471,7 @@
       <c r="BB53" s="31"/>
       <c r="BC53" s="32"/>
     </row>
-    <row r="54" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="22"/>
@@ -5526,7 +5527,7 @@
       <c r="BB54" s="31"/>
       <c r="BC54" s="32"/>
     </row>
-    <row r="55" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
@@ -5582,7 +5583,7 @@
       <c r="BB55" s="31"/>
       <c r="BC55" s="32"/>
     </row>
-    <row r="56" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="22"/>
@@ -5638,7 +5639,7 @@
       <c r="BB56" s="31"/>
       <c r="BC56" s="32"/>
     </row>
-    <row r="57" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="22"/>
@@ -5694,7 +5695,7 @@
       <c r="BB57" s="31"/>
       <c r="BC57" s="32"/>
     </row>
-    <row r="58" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
@@ -5750,7 +5751,7 @@
       <c r="BB58" s="31"/>
       <c r="BC58" s="32"/>
     </row>
-    <row r="59" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
@@ -5806,7 +5807,7 @@
       <c r="BB59" s="31"/>
       <c r="BC59" s="32"/>
     </row>
-    <row r="60" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="22"/>
@@ -5862,7 +5863,7 @@
       <c r="BB60" s="31"/>
       <c r="BC60" s="32"/>
     </row>
-    <row r="61" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
@@ -5918,7 +5919,7 @@
       <c r="BB61" s="31"/>
       <c r="BC61" s="32"/>
     </row>
-    <row r="62" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="22"/>
@@ -5974,7 +5975,7 @@
       <c r="BB62" s="31"/>
       <c r="BC62" s="32"/>
     </row>
-    <row r="63" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
@@ -6030,7 +6031,7 @@
       <c r="BB63" s="31"/>
       <c r="BC63" s="32"/>
     </row>
-    <row r="64" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="22"/>
@@ -6086,7 +6087,7 @@
       <c r="BB64" s="31"/>
       <c r="BC64" s="32"/>
     </row>
-    <row r="65" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B65" s="20"/>
       <c r="C65" s="21"/>
       <c r="D65" s="22"/>
@@ -6142,7 +6143,7 @@
       <c r="BB65" s="31"/>
       <c r="BC65" s="32"/>
     </row>
-    <row r="66" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B66" s="20"/>
       <c r="C66" s="21"/>
       <c r="D66" s="22"/>
@@ -6198,7 +6199,7 @@
       <c r="BB66" s="31"/>
       <c r="BC66" s="32"/>
     </row>
-    <row r="67" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
       <c r="D67" s="22"/>
@@ -6254,7 +6255,7 @@
       <c r="BB67" s="31"/>
       <c r="BC67" s="32"/>
     </row>
-    <row r="68" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
@@ -6310,7 +6311,7 @@
       <c r="BB68" s="31"/>
       <c r="BC68" s="32"/>
     </row>
-    <row r="69" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
       <c r="D69" s="22"/>
@@ -6366,7 +6367,7 @@
       <c r="BB69" s="31"/>
       <c r="BC69" s="32"/>
     </row>
-    <row r="70" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B70" s="20"/>
       <c r="C70" s="21"/>
       <c r="D70" s="22"/>
@@ -6422,7 +6423,7 @@
       <c r="BB70" s="31"/>
       <c r="BC70" s="32"/>
     </row>
-    <row r="71" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B71" s="20"/>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
@@ -6478,7 +6479,7 @@
       <c r="BB71" s="31"/>
       <c r="BC71" s="32"/>
     </row>
-    <row r="72" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
       <c r="D72" s="22"/>
@@ -6534,7 +6535,7 @@
       <c r="BB72" s="31"/>
       <c r="BC72" s="32"/>
     </row>
-    <row r="73" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B73" s="20"/>
       <c r="C73" s="21"/>
       <c r="D73" s="22"/>
@@ -6590,7 +6591,7 @@
       <c r="BB73" s="31"/>
       <c r="BC73" s="32"/>
     </row>
-    <row r="74" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
       <c r="D74" s="22"/>
@@ -6646,7 +6647,7 @@
       <c r="BB74" s="31"/>
       <c r="BC74" s="32"/>
     </row>
-    <row r="75" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
       <c r="D75" s="22"/>
@@ -6702,7 +6703,7 @@
       <c r="BB75" s="31"/>
       <c r="BC75" s="32"/>
     </row>
-    <row r="76" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
       <c r="D76" s="22"/>
@@ -6758,7 +6759,7 @@
       <c r="BB76" s="31"/>
       <c r="BC76" s="32"/>
     </row>
-    <row r="77" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B77" s="20"/>
       <c r="C77" s="21"/>
       <c r="D77" s="22"/>
@@ -6814,7 +6815,7 @@
       <c r="BB77" s="31"/>
       <c r="BC77" s="32"/>
     </row>
-    <row r="78" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B78" s="20"/>
       <c r="C78" s="21"/>
       <c r="D78" s="22"/>
@@ -6870,7 +6871,7 @@
       <c r="BB78" s="31"/>
       <c r="BC78" s="32"/>
     </row>
-    <row r="79" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
       <c r="D79" s="22"/>
@@ -6926,7 +6927,7 @@
       <c r="BB79" s="31"/>
       <c r="BC79" s="32"/>
     </row>
-    <row r="80" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="22"/>
@@ -6982,7 +6983,7 @@
       <c r="BB80" s="31"/>
       <c r="BC80" s="32"/>
     </row>
-    <row r="81" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B81" s="20"/>
       <c r="C81" s="21"/>
       <c r="D81" s="22"/>
@@ -7038,7 +7039,7 @@
       <c r="BB81" s="31"/>
       <c r="BC81" s="32"/>
     </row>
-    <row r="82" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B82" s="20"/>
       <c r="C82" s="21"/>
       <c r="D82" s="22"/>
@@ -7094,7 +7095,7 @@
       <c r="BB82" s="31"/>
       <c r="BC82" s="32"/>
     </row>
-    <row r="83" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
@@ -7150,7 +7151,7 @@
       <c r="BB83" s="31"/>
       <c r="BC83" s="32"/>
     </row>
-    <row r="84" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
@@ -7206,7 +7207,7 @@
       <c r="BB84" s="31"/>
       <c r="BC84" s="32"/>
     </row>
-    <row r="85" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B85" s="20"/>
       <c r="C85" s="21"/>
       <c r="D85" s="22"/>
@@ -7262,7 +7263,7 @@
       <c r="BB85" s="31"/>
       <c r="BC85" s="32"/>
     </row>
-    <row r="86" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="22"/>
@@ -7318,7 +7319,7 @@
       <c r="BB86" s="31"/>
       <c r="BC86" s="32"/>
     </row>
-    <row r="87" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="22"/>
@@ -7374,7 +7375,7 @@
       <c r="BB87" s="31"/>
       <c r="BC87" s="32"/>
     </row>
-    <row r="88" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="22"/>
@@ -7430,7 +7431,7 @@
       <c r="BB88" s="31"/>
       <c r="BC88" s="32"/>
     </row>
-    <row r="89" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="22"/>
@@ -7486,7 +7487,7 @@
       <c r="BB89" s="31"/>
       <c r="BC89" s="32"/>
     </row>
-    <row r="90" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
       <c r="D90" s="22"/>
@@ -7542,7 +7543,7 @@
       <c r="BB90" s="31"/>
       <c r="BC90" s="32"/>
     </row>
-    <row r="91" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
       <c r="D91" s="22"/>
@@ -7598,7 +7599,7 @@
       <c r="BB91" s="31"/>
       <c r="BC91" s="32"/>
     </row>
-    <row r="92" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
       <c r="D92" s="22"/>
@@ -7654,7 +7655,7 @@
       <c r="BB92" s="31"/>
       <c r="BC92" s="32"/>
     </row>
-    <row r="93" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B93" s="20"/>
       <c r="C93" s="21"/>
       <c r="D93" s="22"/>
@@ -7710,7 +7711,7 @@
       <c r="BB93" s="31"/>
       <c r="BC93" s="32"/>
     </row>
-    <row r="94" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B94" s="20"/>
       <c r="C94" s="21"/>
       <c r="D94" s="22"/>
@@ -7766,7 +7767,7 @@
       <c r="BB94" s="31"/>
       <c r="BC94" s="32"/>
     </row>
-    <row r="95" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B95" s="20"/>
       <c r="C95" s="21"/>
       <c r="D95" s="22"/>
@@ -7822,7 +7823,7 @@
       <c r="BB95" s="31"/>
       <c r="BC95" s="32"/>
     </row>
-    <row r="96" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B96" s="20"/>
       <c r="C96" s="21"/>
       <c r="D96" s="22"/>
@@ -7878,7 +7879,7 @@
       <c r="BB96" s="31"/>
       <c r="BC96" s="32"/>
     </row>
-    <row r="97" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B97" s="20"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
@@ -7934,7 +7935,7 @@
       <c r="BB97" s="31"/>
       <c r="BC97" s="32"/>
     </row>
-    <row r="98" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B98" s="20"/>
       <c r="C98" s="21"/>
       <c r="D98" s="22"/>
@@ -7990,7 +7991,7 @@
       <c r="BB98" s="31"/>
       <c r="BC98" s="32"/>
     </row>
-    <row r="99" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B99" s="20"/>
       <c r="C99" s="21"/>
       <c r="D99" s="22"/>
@@ -8046,7 +8047,7 @@
       <c r="BB99" s="31"/>
       <c r="BC99" s="32"/>
     </row>
-    <row r="100" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B100" s="20"/>
       <c r="C100" s="21"/>
       <c r="D100" s="22"/>
@@ -8102,7 +8103,7 @@
       <c r="BB100" s="31"/>
       <c r="BC100" s="32"/>
     </row>
-    <row r="101" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B101" s="20"/>
       <c r="C101" s="21"/>
       <c r="D101" s="22"/>
@@ -8158,7 +8159,7 @@
       <c r="BB101" s="31"/>
       <c r="BC101" s="32"/>
     </row>
-    <row r="102" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B102" s="20"/>
       <c r="C102" s="21"/>
       <c r="D102" s="22"/>
@@ -8214,7 +8215,7 @@
       <c r="BB102" s="31"/>
       <c r="BC102" s="32"/>
     </row>
-    <row r="103" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B103" s="20"/>
       <c r="C103" s="21"/>
       <c r="D103" s="22"/>
@@ -8270,7 +8271,7 @@
       <c r="BB103" s="31"/>
       <c r="BC103" s="32"/>
     </row>
-    <row r="104" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B104" s="20"/>
       <c r="C104" s="21"/>
       <c r="D104" s="22"/>
@@ -8326,7 +8327,7 @@
       <c r="BB104" s="31"/>
       <c r="BC104" s="32"/>
     </row>
-    <row r="105" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B105" s="20"/>
       <c r="C105" s="21"/>
       <c r="D105" s="22"/>
@@ -8382,7 +8383,7 @@
       <c r="BB105" s="31"/>
       <c r="BC105" s="32"/>
     </row>
-    <row r="106" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B106" s="20"/>
       <c r="C106" s="21"/>
       <c r="D106" s="22"/>
@@ -8438,7 +8439,7 @@
       <c r="BB106" s="31"/>
       <c r="BC106" s="32"/>
     </row>
-    <row r="107" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B107" s="20"/>
       <c r="C107" s="21"/>
       <c r="D107" s="22"/>
@@ -8494,7 +8495,7 @@
       <c r="BB107" s="31"/>
       <c r="BC107" s="32"/>
     </row>
-    <row r="108" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B108" s="20"/>
       <c r="C108" s="21"/>
       <c r="D108" s="22"/>
@@ -8550,7 +8551,7 @@
       <c r="BB108" s="31"/>
       <c r="BC108" s="32"/>
     </row>
-    <row r="109" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B109" s="20"/>
       <c r="C109" s="21"/>
       <c r="D109" s="22"/>
@@ -8606,7 +8607,7 @@
       <c r="BB109" s="31"/>
       <c r="BC109" s="32"/>
     </row>
-    <row r="110" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B110" s="20"/>
       <c r="C110" s="21"/>
       <c r="D110" s="22"/>
@@ -8662,7 +8663,7 @@
       <c r="BB110" s="31"/>
       <c r="BC110" s="32"/>
     </row>
-    <row r="111" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B111" s="20"/>
       <c r="C111" s="21"/>
       <c r="D111" s="22"/>
@@ -8718,7 +8719,7 @@
       <c r="BB111" s="31"/>
       <c r="BC111" s="32"/>
     </row>
-    <row r="112" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B112" s="20"/>
       <c r="C112" s="21"/>
       <c r="D112" s="22"/>
@@ -8774,7 +8775,7 @@
       <c r="BB112" s="31"/>
       <c r="BC112" s="32"/>
     </row>
-    <row r="113" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B113" s="20"/>
       <c r="C113" s="21"/>
       <c r="D113" s="22"/>
@@ -8830,7 +8831,7 @@
       <c r="BB113" s="31"/>
       <c r="BC113" s="32"/>
     </row>
-    <row r="114" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B114" s="20"/>
       <c r="C114" s="21"/>
       <c r="D114" s="22"/>
@@ -8886,7 +8887,7 @@
       <c r="BB114" s="31"/>
       <c r="BC114" s="32"/>
     </row>
-    <row r="115" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B115" s="20"/>
       <c r="C115" s="21"/>
       <c r="D115" s="22"/>
@@ -8942,7 +8943,7 @@
       <c r="BB115" s="31"/>
       <c r="BC115" s="32"/>
     </row>
-    <row r="116" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B116" s="20"/>
       <c r="C116" s="21"/>
       <c r="D116" s="22"/>
@@ -8998,7 +8999,7 @@
       <c r="BB116" s="31"/>
       <c r="BC116" s="32"/>
     </row>
-    <row r="117" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B117" s="20"/>
       <c r="C117" s="21"/>
       <c r="D117" s="22"/>
@@ -9054,7 +9055,7 @@
       <c r="BB117" s="31"/>
       <c r="BC117" s="32"/>
     </row>
-    <row r="118" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B118" s="20"/>
       <c r="C118" s="21"/>
       <c r="D118" s="22"/>
@@ -9110,7 +9111,7 @@
       <c r="BB118" s="31"/>
       <c r="BC118" s="32"/>
     </row>
-    <row r="119" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B119" s="20"/>
       <c r="C119" s="21"/>
       <c r="D119" s="22"/>
@@ -9166,7 +9167,7 @@
       <c r="BB119" s="31"/>
       <c r="BC119" s="32"/>
     </row>
-    <row r="120" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B120" s="20"/>
       <c r="C120" s="21"/>
       <c r="D120" s="22"/>
@@ -9222,7 +9223,7 @@
       <c r="BB120" s="31"/>
       <c r="BC120" s="32"/>
     </row>
-    <row r="121" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B121" s="20"/>
       <c r="C121" s="21"/>
       <c r="D121" s="22"/>
@@ -9278,7 +9279,7 @@
       <c r="BB121" s="31"/>
       <c r="BC121" s="32"/>
     </row>
-    <row r="122" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B122" s="20"/>
       <c r="C122" s="21"/>
       <c r="D122" s="22"/>
@@ -9334,7 +9335,7 @@
       <c r="BB122" s="31"/>
       <c r="BC122" s="32"/>
     </row>
-    <row r="123" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B123" s="20"/>
       <c r="C123" s="21"/>
       <c r="D123" s="22"/>
@@ -9390,7 +9391,7 @@
       <c r="BB123" s="31"/>
       <c r="BC123" s="32"/>
     </row>
-    <row r="124" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B124" s="20"/>
       <c r="C124" s="21"/>
       <c r="D124" s="22"/>
@@ -9446,7 +9447,7 @@
       <c r="BB124" s="31"/>
       <c r="BC124" s="32"/>
     </row>
-    <row r="125" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B125" s="20"/>
       <c r="C125" s="21"/>
       <c r="D125" s="22"/>
@@ -9502,7 +9503,7 @@
       <c r="BB125" s="31"/>
       <c r="BC125" s="32"/>
     </row>
-    <row r="126" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B126" s="20"/>
       <c r="C126" s="21"/>
       <c r="D126" s="22"/>
@@ -9558,7 +9559,7 @@
       <c r="BB126" s="31"/>
       <c r="BC126" s="32"/>
     </row>
-    <row r="127" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B127" s="20"/>
       <c r="C127" s="21"/>
       <c r="D127" s="22"/>
@@ -9614,7 +9615,7 @@
       <c r="BB127" s="31"/>
       <c r="BC127" s="32"/>
     </row>
-    <row r="128" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B128" s="20"/>
       <c r="C128" s="21"/>
       <c r="D128" s="22"/>
@@ -9670,7 +9671,7 @@
       <c r="BB128" s="31"/>
       <c r="BC128" s="32"/>
     </row>
-    <row r="129" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B129" s="20"/>
       <c r="C129" s="21"/>
       <c r="D129" s="22"/>
@@ -9726,7 +9727,7 @@
       <c r="BB129" s="31"/>
       <c r="BC129" s="32"/>
     </row>
-    <row r="130" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B130" s="20"/>
       <c r="C130" s="21"/>
       <c r="D130" s="22"/>
@@ -9782,7 +9783,7 @@
       <c r="BB130" s="31"/>
       <c r="BC130" s="32"/>
     </row>
-    <row r="131" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B131" s="20"/>
       <c r="C131" s="21"/>
       <c r="D131" s="22"/>
@@ -9838,7 +9839,7 @@
       <c r="BB131" s="31"/>
       <c r="BC131" s="32"/>
     </row>
-    <row r="132" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B132" s="20"/>
       <c r="C132" s="21"/>
       <c r="D132" s="22"/>
@@ -9894,7 +9895,7 @@
       <c r="BB132" s="31"/>
       <c r="BC132" s="32"/>
     </row>
-    <row r="133" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B133" s="20"/>
       <c r="C133" s="21"/>
       <c r="D133" s="22"/>
@@ -9950,7 +9951,7 @@
       <c r="BB133" s="31"/>
       <c r="BC133" s="32"/>
     </row>
-    <row r="134" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B134" s="20"/>
       <c r="C134" s="21"/>
       <c r="D134" s="22"/>
@@ -10006,7 +10007,7 @@
       <c r="BB134" s="31"/>
       <c r="BC134" s="32"/>
     </row>
-    <row r="135" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B135" s="20"/>
       <c r="C135" s="21"/>
       <c r="D135" s="22"/>
@@ -10062,7 +10063,7 @@
       <c r="BB135" s="31"/>
       <c r="BC135" s="32"/>
     </row>
-    <row r="136" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B136" s="20"/>
       <c r="C136" s="21"/>
       <c r="D136" s="22"/>
@@ -10118,7 +10119,7 @@
       <c r="BB136" s="31"/>
       <c r="BC136" s="32"/>
     </row>
-    <row r="137" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B137" s="20"/>
       <c r="C137" s="21"/>
       <c r="D137" s="22"/>
@@ -10174,7 +10175,7 @@
       <c r="BB137" s="31"/>
       <c r="BC137" s="32"/>
     </row>
-    <row r="138" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B138" s="20"/>
       <c r="C138" s="21"/>
       <c r="D138" s="22"/>
@@ -10230,7 +10231,7 @@
       <c r="BB138" s="31"/>
       <c r="BC138" s="32"/>
     </row>
-    <row r="139" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B139" s="20"/>
       <c r="C139" s="21"/>
       <c r="D139" s="22"/>
@@ -10286,7 +10287,7 @@
       <c r="BB139" s="31"/>
       <c r="BC139" s="32"/>
     </row>
-    <row r="140" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B140" s="20"/>
       <c r="C140" s="21"/>
       <c r="D140" s="22"/>
@@ -10342,7 +10343,7 @@
       <c r="BB140" s="31"/>
       <c r="BC140" s="32"/>
     </row>
-    <row r="141" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B141" s="20"/>
       <c r="C141" s="21"/>
       <c r="D141" s="22"/>
@@ -10398,7 +10399,7 @@
       <c r="BB141" s="31"/>
       <c r="BC141" s="32"/>
     </row>
-    <row r="142" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B142" s="20"/>
       <c r="C142" s="21"/>
       <c r="D142" s="22"/>
@@ -10454,7 +10455,7 @@
       <c r="BB142" s="31"/>
       <c r="BC142" s="32"/>
     </row>
-    <row r="143" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B143" s="20"/>
       <c r="C143" s="21"/>
       <c r="D143" s="22"/>
@@ -10510,7 +10511,7 @@
       <c r="BB143" s="31"/>
       <c r="BC143" s="32"/>
     </row>
-    <row r="144" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B144" s="20"/>
       <c r="C144" s="21"/>
       <c r="D144" s="22"/>
@@ -10566,7 +10567,7 @@
       <c r="BB144" s="31"/>
       <c r="BC144" s="32"/>
     </row>
-    <row r="145" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B145" s="20"/>
       <c r="C145" s="21"/>
       <c r="D145" s="22"/>
@@ -10622,7 +10623,7 @@
       <c r="BB145" s="31"/>
       <c r="BC145" s="32"/>
     </row>
-    <row r="146" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B146" s="20"/>
       <c r="C146" s="21"/>
       <c r="D146" s="22"/>
@@ -10678,7 +10679,7 @@
       <c r="BB146" s="31"/>
       <c r="BC146" s="32"/>
     </row>
-    <row r="147" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B147" s="20"/>
       <c r="C147" s="21"/>
       <c r="D147" s="22"/>
@@ -10734,7 +10735,7 @@
       <c r="BB147" s="31"/>
       <c r="BC147" s="32"/>
     </row>
-    <row r="148" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B148" s="20"/>
       <c r="C148" s="21"/>
       <c r="D148" s="22"/>
@@ -10790,7 +10791,7 @@
       <c r="BB148" s="31"/>
       <c r="BC148" s="32"/>
     </row>
-    <row r="149" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B149" s="20"/>
       <c r="C149" s="21"/>
       <c r="D149" s="22"/>
@@ -10846,7 +10847,7 @@
       <c r="BB149" s="31"/>
       <c r="BC149" s="32"/>
     </row>
-    <row r="150" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B150" s="20"/>
       <c r="C150" s="21"/>
       <c r="D150" s="22"/>
@@ -10902,7 +10903,7 @@
       <c r="BB150" s="31"/>
       <c r="BC150" s="32"/>
     </row>
-    <row r="151" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B151" s="20"/>
       <c r="C151" s="21"/>
       <c r="D151" s="22"/>
@@ -10958,7 +10959,7 @@
       <c r="BB151" s="31"/>
       <c r="BC151" s="32"/>
     </row>
-    <row r="152" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B152" s="20"/>
       <c r="C152" s="21"/>
       <c r="D152" s="22"/>
@@ -11014,7 +11015,7 @@
       <c r="BB152" s="31"/>
       <c r="BC152" s="32"/>
     </row>
-    <row r="153" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B153" s="20"/>
       <c r="C153" s="21"/>
       <c r="D153" s="22"/>
@@ -11070,7 +11071,7 @@
       <c r="BB153" s="31"/>
       <c r="BC153" s="32"/>
     </row>
-    <row r="154" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B154" s="20"/>
       <c r="C154" s="21"/>
       <c r="D154" s="22"/>
@@ -11126,7 +11127,7 @@
       <c r="BB154" s="31"/>
       <c r="BC154" s="32"/>
     </row>
-    <row r="155" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B155" s="20"/>
       <c r="C155" s="21"/>
       <c r="D155" s="22"/>
@@ -11182,7 +11183,7 @@
       <c r="BB155" s="31"/>
       <c r="BC155" s="32"/>
     </row>
-    <row r="156" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B156" s="20"/>
       <c r="C156" s="21"/>
       <c r="D156" s="22"/>
@@ -11238,7 +11239,7 @@
       <c r="BB156" s="31"/>
       <c r="BC156" s="32"/>
     </row>
-    <row r="157" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B157" s="20"/>
       <c r="C157" s="21"/>
       <c r="D157" s="22"/>
@@ -11294,7 +11295,7 @@
       <c r="BB157" s="31"/>
       <c r="BC157" s="32"/>
     </row>
-    <row r="158" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B158" s="20"/>
       <c r="C158" s="21"/>
       <c r="D158" s="22"/>
@@ -11350,7 +11351,7 @@
       <c r="BB158" s="31"/>
       <c r="BC158" s="32"/>
     </row>
-    <row r="159" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B159" s="20"/>
       <c r="C159" s="21"/>
       <c r="D159" s="22"/>
@@ -11406,7 +11407,7 @@
       <c r="BB159" s="31"/>
       <c r="BC159" s="32"/>
     </row>
-    <row r="160" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B160" s="20"/>
       <c r="C160" s="21"/>
       <c r="D160" s="22"/>
@@ -11462,7 +11463,7 @@
       <c r="BB160" s="31"/>
       <c r="BC160" s="32"/>
     </row>
-    <row r="161" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B161" s="20"/>
       <c r="C161" s="21"/>
       <c r="D161" s="22"/>
@@ -11518,7 +11519,7 @@
       <c r="BB161" s="31"/>
       <c r="BC161" s="32"/>
     </row>
-    <row r="162" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B162" s="20"/>
       <c r="C162" s="21"/>
       <c r="D162" s="22"/>
@@ -11574,7 +11575,7 @@
       <c r="BB162" s="31"/>
       <c r="BC162" s="32"/>
     </row>
-    <row r="163" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B163" s="20"/>
       <c r="C163" s="21"/>
       <c r="D163" s="22"/>
@@ -11630,7 +11631,7 @@
       <c r="BB163" s="31"/>
       <c r="BC163" s="32"/>
     </row>
-    <row r="164" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B164" s="20"/>
       <c r="C164" s="21"/>
       <c r="D164" s="22"/>
@@ -11686,7 +11687,7 @@
       <c r="BB164" s="31"/>
       <c r="BC164" s="32"/>
     </row>
-    <row r="165" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B165" s="20"/>
       <c r="C165" s="21"/>
       <c r="D165" s="22"/>
@@ -11742,7 +11743,7 @@
       <c r="BB165" s="31"/>
       <c r="BC165" s="32"/>
     </row>
-    <row r="166" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B166" s="20"/>
       <c r="C166" s="21"/>
       <c r="D166" s="22"/>
@@ -11798,7 +11799,7 @@
       <c r="BB166" s="31"/>
       <c r="BC166" s="32"/>
     </row>
-    <row r="167" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B167" s="20"/>
       <c r="C167" s="21"/>
       <c r="D167" s="22"/>
@@ -11854,7 +11855,7 @@
       <c r="BB167" s="31"/>
       <c r="BC167" s="32"/>
     </row>
-    <row r="168" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B168" s="20"/>
       <c r="C168" s="21"/>
       <c r="D168" s="22"/>
@@ -11910,7 +11911,7 @@
       <c r="BB168" s="31"/>
       <c r="BC168" s="32"/>
     </row>
-    <row r="169" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B169" s="20"/>
       <c r="C169" s="21"/>
       <c r="D169" s="22"/>
@@ -11966,7 +11967,7 @@
       <c r="BB169" s="31"/>
       <c r="BC169" s="32"/>
     </row>
-    <row r="170" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B170" s="20"/>
       <c r="C170" s="21"/>
       <c r="D170" s="22"/>
@@ -12013,7 +12014,7 @@
       <c r="BB170" s="31"/>
       <c r="BC170" s="32"/>
     </row>
-    <row r="171" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B171" s="20"/>
       <c r="C171" s="21"/>
       <c r="D171" s="22"/>
@@ -12060,7 +12061,7 @@
       <c r="BB171" s="31"/>
       <c r="BC171" s="32"/>
     </row>
-    <row r="172" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B172" s="20"/>
       <c r="C172" s="21"/>
       <c r="D172" s="22"/>
@@ -12101,7 +12102,7 @@
       <c r="AR172" s="28"/>
       <c r="BC172" s="32"/>
     </row>
-    <row r="173" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B173" s="20"/>
       <c r="C173" s="21"/>
       <c r="D173" s="22"/>
@@ -12140,7 +12141,7 @@
       <c r="AR173" s="28"/>
       <c r="BC173" s="32"/>
     </row>
-    <row r="174" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B174" s="20"/>
       <c r="C174" s="21"/>
       <c r="D174" s="22"/>
@@ -12181,52 +12182,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
+    <sheetView topLeftCell="U1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
       <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="40" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="41" customWidth="1"/>
-    <col min="8" max="9" width="15.375" style="42" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="43" customWidth="1"/>
-    <col min="11" max="12" width="15.375" style="44" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="45" customWidth="1"/>
-    <col min="14" max="14" width="15.375" style="46" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="47" customWidth="1"/>
-    <col min="16" max="17" width="15.375" style="48" customWidth="1"/>
-    <col min="18" max="18" width="15.375" style="49" customWidth="1"/>
-    <col min="19" max="25" width="15.375" style="57" customWidth="1"/>
-    <col min="26" max="26" width="15.375" style="50" customWidth="1"/>
-    <col min="27" max="30" width="15.375" style="51" customWidth="1"/>
-    <col min="31" max="31" width="15.375" style="36" customWidth="1"/>
-    <col min="32" max="32" width="15.375" style="37" customWidth="1"/>
-    <col min="33" max="33" width="15.375" style="38" customWidth="1"/>
-    <col min="34" max="34" width="15.375" style="39" customWidth="1"/>
-    <col min="35" max="35" width="15.375" style="40" customWidth="1"/>
-    <col min="36" max="36" width="16.125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="41" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="43" customWidth="1"/>
+    <col min="11" max="12" width="15.33203125" style="44" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="46" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="47" customWidth="1"/>
+    <col min="16" max="17" width="15.33203125" style="48" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="49" customWidth="1"/>
+    <col min="19" max="25" width="15.33203125" style="57" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" style="50" customWidth="1"/>
+    <col min="27" max="30" width="15.33203125" style="51" customWidth="1"/>
+    <col min="31" max="31" width="15.33203125" style="36" customWidth="1"/>
+    <col min="32" max="32" width="15.33203125" style="37" customWidth="1"/>
+    <col min="33" max="33" width="15.33203125" style="38" customWidth="1"/>
+    <col min="34" max="34" width="15.33203125" style="39" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" style="40" customWidth="1"/>
+    <col min="36" max="36" width="16.1640625" style="40" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="17.5" style="41" customWidth="1"/>
-    <col min="38" max="41" width="15.375" style="42" customWidth="1"/>
-    <col min="42" max="42" width="15.375" style="43" customWidth="1"/>
-    <col min="43" max="44" width="15.375" style="44" customWidth="1"/>
-    <col min="45" max="45" width="15.375" style="45" customWidth="1"/>
-    <col min="46" max="53" width="15.375" style="46" customWidth="1"/>
-    <col min="54" max="54" width="15.375" style="47" customWidth="1"/>
-    <col min="55" max="55" width="15.375" style="48" customWidth="1"/>
-    <col min="56" max="59" width="15.375" style="19" customWidth="1"/>
-    <col min="60" max="16384" width="10.875" style="19"/>
+    <col min="38" max="41" width="15.33203125" style="42" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" style="43" customWidth="1"/>
+    <col min="43" max="44" width="15.33203125" style="44" customWidth="1"/>
+    <col min="45" max="45" width="15.33203125" style="45" customWidth="1"/>
+    <col min="46" max="53" width="15.33203125" style="46" customWidth="1"/>
+    <col min="54" max="54" width="15.33203125" style="47" customWidth="1"/>
+    <col min="55" max="55" width="15.33203125" style="48" customWidth="1"/>
+    <col min="56" max="59" width="15.33203125" style="19" customWidth="1"/>
+    <col min="60" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
@@ -12405,7 +12406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>14</v>
       </c>
@@ -12508,7 +12509,7 @@
       </c>
       <c r="BC2" s="32"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
         <v>8</v>
       </c>
@@ -12601,7 +12602,7 @@
       </c>
       <c r="BC3" s="32"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
@@ -12685,7 +12686,7 @@
       <c r="BB4" s="31"/>
       <c r="BC4" s="32"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
@@ -12761,7 +12762,7 @@
       <c r="BB5" s="31"/>
       <c r="BC5" s="32"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
@@ -12836,7 +12837,7 @@
       <c r="BB6" s="31"/>
       <c r="BC6" s="32"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
@@ -12892,7 +12893,7 @@
       <c r="BB7" s="31"/>
       <c r="BC7" s="32"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
@@ -12948,7 +12949,7 @@
       <c r="BB8" s="31"/>
       <c r="BC8" s="32"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
@@ -13004,7 +13005,7 @@
       <c r="BB9" s="31"/>
       <c r="BC9" s="32"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
@@ -13060,7 +13061,7 @@
       <c r="BB10" s="31"/>
       <c r="BC10" s="32"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
@@ -13116,7 +13117,7 @@
       <c r="BB11" s="31"/>
       <c r="BC11" s="32"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
@@ -13172,7 +13173,7 @@
       <c r="BB12" s="31"/>
       <c r="BC12" s="32"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -13228,7 +13229,7 @@
       <c r="BB13" s="31"/>
       <c r="BC13" s="32"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
@@ -13284,7 +13285,7 @@
       <c r="BB14" s="31"/>
       <c r="BC14" s="32"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
@@ -13340,7 +13341,7 @@
       <c r="BB15" s="31"/>
       <c r="BC15" s="32"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
@@ -13396,7 +13397,7 @@
       <c r="BB16" s="31"/>
       <c r="BC16" s="32"/>
     </row>
-    <row r="17" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
@@ -13452,7 +13453,7 @@
       <c r="BB17" s="31"/>
       <c r="BC17" s="32"/>
     </row>
-    <row r="18" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -13508,7 +13509,7 @@
       <c r="BB18" s="31"/>
       <c r="BC18" s="32"/>
     </row>
-    <row r="19" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
@@ -13564,7 +13565,7 @@
       <c r="BB19" s="31"/>
       <c r="BC19" s="32"/>
     </row>
-    <row r="20" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
@@ -13620,7 +13621,7 @@
       <c r="BB20" s="31"/>
       <c r="BC20" s="32"/>
     </row>
-    <row r="21" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
@@ -13676,7 +13677,7 @@
       <c r="BB21" s="31"/>
       <c r="BC21" s="32"/>
     </row>
-    <row r="22" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
@@ -13732,7 +13733,7 @@
       <c r="BB22" s="31"/>
       <c r="BC22" s="32"/>
     </row>
-    <row r="23" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
@@ -13788,7 +13789,7 @@
       <c r="BB23" s="31"/>
       <c r="BC23" s="32"/>
     </row>
-    <row r="24" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
@@ -13844,7 +13845,7 @@
       <c r="BB24" s="31"/>
       <c r="BC24" s="32"/>
     </row>
-    <row r="25" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
@@ -13900,7 +13901,7 @@
       <c r="BB25" s="31"/>
       <c r="BC25" s="32"/>
     </row>
-    <row r="26" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
@@ -13956,7 +13957,7 @@
       <c r="BB26" s="31"/>
       <c r="BC26" s="32"/>
     </row>
-    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
@@ -14012,7 +14013,7 @@
       <c r="BB27" s="31"/>
       <c r="BC27" s="32"/>
     </row>
-    <row r="28" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
@@ -14068,7 +14069,7 @@
       <c r="BB28" s="31"/>
       <c r="BC28" s="32"/>
     </row>
-    <row r="29" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
@@ -14124,7 +14125,7 @@
       <c r="BB29" s="31"/>
       <c r="BC29" s="32"/>
     </row>
-    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
@@ -14180,7 +14181,7 @@
       <c r="BB30" s="31"/>
       <c r="BC30" s="32"/>
     </row>
-    <row r="31" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
@@ -14236,7 +14237,7 @@
       <c r="BB31" s="31"/>
       <c r="BC31" s="32"/>
     </row>
-    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
@@ -14292,7 +14293,7 @@
       <c r="BB32" s="31"/>
       <c r="BC32" s="32"/>
     </row>
-    <row r="33" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
@@ -14348,7 +14349,7 @@
       <c r="BB33" s="31"/>
       <c r="BC33" s="32"/>
     </row>
-    <row r="34" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
@@ -14404,7 +14405,7 @@
       <c r="BB34" s="31"/>
       <c r="BC34" s="32"/>
     </row>
-    <row r="35" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
@@ -14460,7 +14461,7 @@
       <c r="BB35" s="31"/>
       <c r="BC35" s="32"/>
     </row>
-    <row r="36" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
@@ -14516,7 +14517,7 @@
       <c r="BB36" s="31"/>
       <c r="BC36" s="32"/>
     </row>
-    <row r="37" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
@@ -14572,7 +14573,7 @@
       <c r="BB37" s="31"/>
       <c r="BC37" s="32"/>
     </row>
-    <row r="38" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
@@ -14628,7 +14629,7 @@
       <c r="BB38" s="31"/>
       <c r="BC38" s="32"/>
     </row>
-    <row r="39" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
@@ -14684,7 +14685,7 @@
       <c r="BB39" s="31"/>
       <c r="BC39" s="32"/>
     </row>
-    <row r="40" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
       <c r="D40" s="22"/>
@@ -14740,7 +14741,7 @@
       <c r="BB40" s="31"/>
       <c r="BC40" s="32"/>
     </row>
-    <row r="41" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
       <c r="D41" s="22"/>
@@ -14796,7 +14797,7 @@
       <c r="BB41" s="31"/>
       <c r="BC41" s="32"/>
     </row>
-    <row r="42" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="22"/>
@@ -14852,7 +14853,7 @@
       <c r="BB42" s="31"/>
       <c r="BC42" s="32"/>
     </row>
-    <row r="43" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
@@ -14908,7 +14909,7 @@
       <c r="BB43" s="31"/>
       <c r="BC43" s="32"/>
     </row>
-    <row r="44" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
@@ -14964,7 +14965,7 @@
       <c r="BB44" s="31"/>
       <c r="BC44" s="32"/>
     </row>
-    <row r="45" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="22"/>
@@ -15020,7 +15021,7 @@
       <c r="BB45" s="31"/>
       <c r="BC45" s="32"/>
     </row>
-    <row r="46" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
@@ -15076,7 +15077,7 @@
       <c r="BB46" s="31"/>
       <c r="BC46" s="32"/>
     </row>
-    <row r="47" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
       <c r="D47" s="22"/>
@@ -15132,7 +15133,7 @@
       <c r="BB47" s="31"/>
       <c r="BC47" s="32"/>
     </row>
-    <row r="48" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
@@ -15188,7 +15189,7 @@
       <c r="BB48" s="31"/>
       <c r="BC48" s="32"/>
     </row>
-    <row r="49" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
@@ -15244,7 +15245,7 @@
       <c r="BB49" s="31"/>
       <c r="BC49" s="32"/>
     </row>
-    <row r="50" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="22"/>
@@ -15300,7 +15301,7 @@
       <c r="BB50" s="31"/>
       <c r="BC50" s="32"/>
     </row>
-    <row r="51" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
@@ -15356,7 +15357,7 @@
       <c r="BB51" s="31"/>
       <c r="BC51" s="32"/>
     </row>
-    <row r="52" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="22"/>
@@ -15412,7 +15413,7 @@
       <c r="BB52" s="31"/>
       <c r="BC52" s="32"/>
     </row>
-    <row r="53" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
@@ -15468,7 +15469,7 @@
       <c r="BB53" s="31"/>
       <c r="BC53" s="32"/>
     </row>
-    <row r="54" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="22"/>
@@ -15524,7 +15525,7 @@
       <c r="BB54" s="31"/>
       <c r="BC54" s="32"/>
     </row>
-    <row r="55" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
@@ -15580,7 +15581,7 @@
       <c r="BB55" s="31"/>
       <c r="BC55" s="32"/>
     </row>
-    <row r="56" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="22"/>
@@ -15636,7 +15637,7 @@
       <c r="BB56" s="31"/>
       <c r="BC56" s="32"/>
     </row>
-    <row r="57" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="22"/>
@@ -15692,7 +15693,7 @@
       <c r="BB57" s="31"/>
       <c r="BC57" s="32"/>
     </row>
-    <row r="58" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
@@ -15748,7 +15749,7 @@
       <c r="BB58" s="31"/>
       <c r="BC58" s="32"/>
     </row>
-    <row r="59" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
@@ -15804,7 +15805,7 @@
       <c r="BB59" s="31"/>
       <c r="BC59" s="32"/>
     </row>
-    <row r="60" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="22"/>
@@ -15860,7 +15861,7 @@
       <c r="BB60" s="31"/>
       <c r="BC60" s="32"/>
     </row>
-    <row r="61" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
@@ -15916,7 +15917,7 @@
       <c r="BB61" s="31"/>
       <c r="BC61" s="32"/>
     </row>
-    <row r="62" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="22"/>
@@ -15972,7 +15973,7 @@
       <c r="BB62" s="31"/>
       <c r="BC62" s="32"/>
     </row>
-    <row r="63" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
@@ -16028,7 +16029,7 @@
       <c r="BB63" s="31"/>
       <c r="BC63" s="32"/>
     </row>
-    <row r="64" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="22"/>
@@ -16084,7 +16085,7 @@
       <c r="BB64" s="31"/>
       <c r="BC64" s="32"/>
     </row>
-    <row r="65" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B65" s="20"/>
       <c r="C65" s="21"/>
       <c r="D65" s="22"/>
@@ -16140,7 +16141,7 @@
       <c r="BB65" s="31"/>
       <c r="BC65" s="32"/>
     </row>
-    <row r="66" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B66" s="20"/>
       <c r="C66" s="21"/>
       <c r="D66" s="22"/>
@@ -16196,7 +16197,7 @@
       <c r="BB66" s="31"/>
       <c r="BC66" s="32"/>
     </row>
-    <row r="67" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
       <c r="D67" s="22"/>
@@ -16252,7 +16253,7 @@
       <c r="BB67" s="31"/>
       <c r="BC67" s="32"/>
     </row>
-    <row r="68" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
@@ -16308,7 +16309,7 @@
       <c r="BB68" s="31"/>
       <c r="BC68" s="32"/>
     </row>
-    <row r="69" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
       <c r="D69" s="22"/>
@@ -16364,7 +16365,7 @@
       <c r="BB69" s="31"/>
       <c r="BC69" s="32"/>
     </row>
-    <row r="70" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B70" s="20"/>
       <c r="C70" s="21"/>
       <c r="D70" s="22"/>
@@ -16420,7 +16421,7 @@
       <c r="BB70" s="31"/>
       <c r="BC70" s="32"/>
     </row>
-    <row r="71" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B71" s="20"/>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
@@ -16476,7 +16477,7 @@
       <c r="BB71" s="31"/>
       <c r="BC71" s="32"/>
     </row>
-    <row r="72" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
       <c r="D72" s="22"/>
@@ -16532,7 +16533,7 @@
       <c r="BB72" s="31"/>
       <c r="BC72" s="32"/>
     </row>
-    <row r="73" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B73" s="20"/>
       <c r="C73" s="21"/>
       <c r="D73" s="22"/>
@@ -16588,7 +16589,7 @@
       <c r="BB73" s="31"/>
       <c r="BC73" s="32"/>
     </row>
-    <row r="74" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
       <c r="D74" s="22"/>
@@ -16644,7 +16645,7 @@
       <c r="BB74" s="31"/>
       <c r="BC74" s="32"/>
     </row>
-    <row r="75" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
       <c r="D75" s="22"/>
@@ -16700,7 +16701,7 @@
       <c r="BB75" s="31"/>
       <c r="BC75" s="32"/>
     </row>
-    <row r="76" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
       <c r="D76" s="22"/>
@@ -16756,7 +16757,7 @@
       <c r="BB76" s="31"/>
       <c r="BC76" s="32"/>
     </row>
-    <row r="77" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B77" s="20"/>
       <c r="C77" s="21"/>
       <c r="D77" s="22"/>
@@ -16812,7 +16813,7 @@
       <c r="BB77" s="31"/>
       <c r="BC77" s="32"/>
     </row>
-    <row r="78" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B78" s="20"/>
       <c r="C78" s="21"/>
       <c r="D78" s="22"/>
@@ -16868,7 +16869,7 @@
       <c r="BB78" s="31"/>
       <c r="BC78" s="32"/>
     </row>
-    <row r="79" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
       <c r="D79" s="22"/>
@@ -16924,7 +16925,7 @@
       <c r="BB79" s="31"/>
       <c r="BC79" s="32"/>
     </row>
-    <row r="80" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="22"/>
@@ -16980,7 +16981,7 @@
       <c r="BB80" s="31"/>
       <c r="BC80" s="32"/>
     </row>
-    <row r="81" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B81" s="20"/>
       <c r="C81" s="21"/>
       <c r="D81" s="22"/>
@@ -17036,7 +17037,7 @@
       <c r="BB81" s="31"/>
       <c r="BC81" s="32"/>
     </row>
-    <row r="82" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B82" s="20"/>
       <c r="C82" s="21"/>
       <c r="D82" s="22"/>
@@ -17092,7 +17093,7 @@
       <c r="BB82" s="31"/>
       <c r="BC82" s="32"/>
     </row>
-    <row r="83" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
@@ -17148,7 +17149,7 @@
       <c r="BB83" s="31"/>
       <c r="BC83" s="32"/>
     </row>
-    <row r="84" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
@@ -17204,7 +17205,7 @@
       <c r="BB84" s="31"/>
       <c r="BC84" s="32"/>
     </row>
-    <row r="85" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B85" s="20"/>
       <c r="C85" s="21"/>
       <c r="D85" s="22"/>
@@ -17260,7 +17261,7 @@
       <c r="BB85" s="31"/>
       <c r="BC85" s="32"/>
     </row>
-    <row r="86" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="22"/>
@@ -17316,7 +17317,7 @@
       <c r="BB86" s="31"/>
       <c r="BC86" s="32"/>
     </row>
-    <row r="87" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="22"/>
@@ -17372,7 +17373,7 @@
       <c r="BB87" s="31"/>
       <c r="BC87" s="32"/>
     </row>
-    <row r="88" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="22"/>
@@ -17428,7 +17429,7 @@
       <c r="BB88" s="31"/>
       <c r="BC88" s="32"/>
     </row>
-    <row r="89" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="22"/>
@@ -17484,7 +17485,7 @@
       <c r="BB89" s="31"/>
       <c r="BC89" s="32"/>
     </row>
-    <row r="90" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
       <c r="D90" s="22"/>
@@ -17540,7 +17541,7 @@
       <c r="BB90" s="31"/>
       <c r="BC90" s="32"/>
     </row>
-    <row r="91" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
       <c r="D91" s="22"/>
@@ -17596,7 +17597,7 @@
       <c r="BB91" s="31"/>
       <c r="BC91" s="32"/>
     </row>
-    <row r="92" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
       <c r="D92" s="22"/>
@@ -17652,7 +17653,7 @@
       <c r="BB92" s="31"/>
       <c r="BC92" s="32"/>
     </row>
-    <row r="93" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B93" s="20"/>
       <c r="C93" s="21"/>
       <c r="D93" s="22"/>
@@ -17708,7 +17709,7 @@
       <c r="BB93" s="31"/>
       <c r="BC93" s="32"/>
     </row>
-    <row r="94" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B94" s="20"/>
       <c r="C94" s="21"/>
       <c r="D94" s="22"/>
@@ -17764,7 +17765,7 @@
       <c r="BB94" s="31"/>
       <c r="BC94" s="32"/>
     </row>
-    <row r="95" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B95" s="20"/>
       <c r="C95" s="21"/>
       <c r="D95" s="22"/>
@@ -17820,7 +17821,7 @@
       <c r="BB95" s="31"/>
       <c r="BC95" s="32"/>
     </row>
-    <row r="96" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B96" s="20"/>
       <c r="C96" s="21"/>
       <c r="D96" s="22"/>
@@ -17876,7 +17877,7 @@
       <c r="BB96" s="31"/>
       <c r="BC96" s="32"/>
     </row>
-    <row r="97" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B97" s="20"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
@@ -17932,7 +17933,7 @@
       <c r="BB97" s="31"/>
       <c r="BC97" s="32"/>
     </row>
-    <row r="98" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B98" s="20"/>
       <c r="C98" s="21"/>
       <c r="D98" s="22"/>
@@ -17988,7 +17989,7 @@
       <c r="BB98" s="31"/>
       <c r="BC98" s="32"/>
     </row>
-    <row r="99" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B99" s="20"/>
       <c r="C99" s="21"/>
       <c r="D99" s="22"/>
@@ -18044,7 +18045,7 @@
       <c r="BB99" s="31"/>
       <c r="BC99" s="32"/>
     </row>
-    <row r="100" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B100" s="20"/>
       <c r="C100" s="21"/>
       <c r="D100" s="22"/>
@@ -18100,7 +18101,7 @@
       <c r="BB100" s="31"/>
       <c r="BC100" s="32"/>
     </row>
-    <row r="101" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B101" s="20"/>
       <c r="C101" s="21"/>
       <c r="D101" s="22"/>
@@ -18156,7 +18157,7 @@
       <c r="BB101" s="31"/>
       <c r="BC101" s="32"/>
     </row>
-    <row r="102" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B102" s="20"/>
       <c r="C102" s="21"/>
       <c r="D102" s="22"/>
@@ -18212,7 +18213,7 @@
       <c r="BB102" s="31"/>
       <c r="BC102" s="32"/>
     </row>
-    <row r="103" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B103" s="20"/>
       <c r="C103" s="21"/>
       <c r="D103" s="22"/>
@@ -18268,7 +18269,7 @@
       <c r="BB103" s="31"/>
       <c r="BC103" s="32"/>
     </row>
-    <row r="104" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B104" s="20"/>
       <c r="C104" s="21"/>
       <c r="D104" s="22"/>
@@ -18324,7 +18325,7 @@
       <c r="BB104" s="31"/>
       <c r="BC104" s="32"/>
     </row>
-    <row r="105" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B105" s="20"/>
       <c r="C105" s="21"/>
       <c r="D105" s="22"/>
@@ -18380,7 +18381,7 @@
       <c r="BB105" s="31"/>
       <c r="BC105" s="32"/>
     </row>
-    <row r="106" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B106" s="20"/>
       <c r="C106" s="21"/>
       <c r="D106" s="22"/>
@@ -18436,7 +18437,7 @@
       <c r="BB106" s="31"/>
       <c r="BC106" s="32"/>
     </row>
-    <row r="107" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B107" s="20"/>
       <c r="C107" s="21"/>
       <c r="D107" s="22"/>
@@ -18492,7 +18493,7 @@
       <c r="BB107" s="31"/>
       <c r="BC107" s="32"/>
     </row>
-    <row r="108" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B108" s="20"/>
       <c r="C108" s="21"/>
       <c r="D108" s="22"/>
@@ -18548,7 +18549,7 @@
       <c r="BB108" s="31"/>
       <c r="BC108" s="32"/>
     </row>
-    <row r="109" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B109" s="20"/>
       <c r="C109" s="21"/>
       <c r="D109" s="22"/>
@@ -18604,7 +18605,7 @@
       <c r="BB109" s="31"/>
       <c r="BC109" s="32"/>
     </row>
-    <row r="110" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B110" s="20"/>
       <c r="C110" s="21"/>
       <c r="D110" s="22"/>
@@ -18660,7 +18661,7 @@
       <c r="BB110" s="31"/>
       <c r="BC110" s="32"/>
     </row>
-    <row r="111" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B111" s="20"/>
       <c r="C111" s="21"/>
       <c r="D111" s="22"/>
@@ -18716,7 +18717,7 @@
       <c r="BB111" s="31"/>
       <c r="BC111" s="32"/>
     </row>
-    <row r="112" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B112" s="20"/>
       <c r="C112" s="21"/>
       <c r="D112" s="22"/>
@@ -18772,7 +18773,7 @@
       <c r="BB112" s="31"/>
       <c r="BC112" s="32"/>
     </row>
-    <row r="113" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B113" s="20"/>
       <c r="C113" s="21"/>
       <c r="D113" s="22"/>
@@ -18828,7 +18829,7 @@
       <c r="BB113" s="31"/>
       <c r="BC113" s="32"/>
     </row>
-    <row r="114" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B114" s="20"/>
       <c r="C114" s="21"/>
       <c r="D114" s="22"/>
@@ -18884,7 +18885,7 @@
       <c r="BB114" s="31"/>
       <c r="BC114" s="32"/>
     </row>
-    <row r="115" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B115" s="20"/>
       <c r="C115" s="21"/>
       <c r="D115" s="22"/>
@@ -18940,7 +18941,7 @@
       <c r="BB115" s="31"/>
       <c r="BC115" s="32"/>
     </row>
-    <row r="116" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B116" s="20"/>
       <c r="C116" s="21"/>
       <c r="D116" s="22"/>
@@ -18996,7 +18997,7 @@
       <c r="BB116" s="31"/>
       <c r="BC116" s="32"/>
     </row>
-    <row r="117" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B117" s="20"/>
       <c r="C117" s="21"/>
       <c r="D117" s="22"/>
@@ -19052,7 +19053,7 @@
       <c r="BB117" s="31"/>
       <c r="BC117" s="32"/>
     </row>
-    <row r="118" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B118" s="20"/>
       <c r="C118" s="21"/>
       <c r="D118" s="22"/>
@@ -19108,7 +19109,7 @@
       <c r="BB118" s="31"/>
       <c r="BC118" s="32"/>
     </row>
-    <row r="119" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B119" s="20"/>
       <c r="C119" s="21"/>
       <c r="D119" s="22"/>
@@ -19164,7 +19165,7 @@
       <c r="BB119" s="31"/>
       <c r="BC119" s="32"/>
     </row>
-    <row r="120" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B120" s="20"/>
       <c r="C120" s="21"/>
       <c r="D120" s="22"/>
@@ -19220,7 +19221,7 @@
       <c r="BB120" s="31"/>
       <c r="BC120" s="32"/>
     </row>
-    <row r="121" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B121" s="20"/>
       <c r="C121" s="21"/>
       <c r="D121" s="22"/>
@@ -19276,7 +19277,7 @@
       <c r="BB121" s="31"/>
       <c r="BC121" s="32"/>
     </row>
-    <row r="122" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B122" s="20"/>
       <c r="C122" s="21"/>
       <c r="D122" s="22"/>
@@ -19332,7 +19333,7 @@
       <c r="BB122" s="31"/>
       <c r="BC122" s="32"/>
     </row>
-    <row r="123" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B123" s="20"/>
       <c r="C123" s="21"/>
       <c r="D123" s="22"/>
@@ -19388,7 +19389,7 @@
       <c r="BB123" s="31"/>
       <c r="BC123" s="32"/>
     </row>
-    <row r="124" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B124" s="20"/>
       <c r="C124" s="21"/>
       <c r="D124" s="22"/>
@@ -19444,7 +19445,7 @@
       <c r="BB124" s="31"/>
       <c r="BC124" s="32"/>
     </row>
-    <row r="125" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B125" s="20"/>
       <c r="C125" s="21"/>
       <c r="D125" s="22"/>
@@ -19500,7 +19501,7 @@
       <c r="BB125" s="31"/>
       <c r="BC125" s="32"/>
     </row>
-    <row r="126" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B126" s="20"/>
       <c r="C126" s="21"/>
       <c r="D126" s="22"/>
@@ -19556,7 +19557,7 @@
       <c r="BB126" s="31"/>
       <c r="BC126" s="32"/>
     </row>
-    <row r="127" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B127" s="20"/>
       <c r="C127" s="21"/>
       <c r="D127" s="22"/>
@@ -19612,7 +19613,7 @@
       <c r="BB127" s="31"/>
       <c r="BC127" s="32"/>
     </row>
-    <row r="128" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B128" s="20"/>
       <c r="C128" s="21"/>
       <c r="D128" s="22"/>
@@ -19668,7 +19669,7 @@
       <c r="BB128" s="31"/>
       <c r="BC128" s="32"/>
     </row>
-    <row r="129" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B129" s="20"/>
       <c r="C129" s="21"/>
       <c r="D129" s="22"/>
@@ -19724,7 +19725,7 @@
       <c r="BB129" s="31"/>
       <c r="BC129" s="32"/>
     </row>
-    <row r="130" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B130" s="20"/>
       <c r="C130" s="21"/>
       <c r="D130" s="22"/>
@@ -19780,7 +19781,7 @@
       <c r="BB130" s="31"/>
       <c r="BC130" s="32"/>
     </row>
-    <row r="131" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B131" s="20"/>
       <c r="C131" s="21"/>
       <c r="D131" s="22"/>
@@ -19836,7 +19837,7 @@
       <c r="BB131" s="31"/>
       <c r="BC131" s="32"/>
     </row>
-    <row r="132" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B132" s="20"/>
       <c r="C132" s="21"/>
       <c r="D132" s="22"/>
@@ -19892,7 +19893,7 @@
       <c r="BB132" s="31"/>
       <c r="BC132" s="32"/>
     </row>
-    <row r="133" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B133" s="20"/>
       <c r="C133" s="21"/>
       <c r="D133" s="22"/>
@@ -19948,7 +19949,7 @@
       <c r="BB133" s="31"/>
       <c r="BC133" s="32"/>
     </row>
-    <row r="134" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B134" s="20"/>
       <c r="C134" s="21"/>
       <c r="D134" s="22"/>
@@ -20004,7 +20005,7 @@
       <c r="BB134" s="31"/>
       <c r="BC134" s="32"/>
     </row>
-    <row r="135" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B135" s="20"/>
       <c r="C135" s="21"/>
       <c r="D135" s="22"/>
@@ -20060,7 +20061,7 @@
       <c r="BB135" s="31"/>
       <c r="BC135" s="32"/>
     </row>
-    <row r="136" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B136" s="20"/>
       <c r="C136" s="21"/>
       <c r="D136" s="22"/>
@@ -20116,7 +20117,7 @@
       <c r="BB136" s="31"/>
       <c r="BC136" s="32"/>
     </row>
-    <row r="137" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B137" s="20"/>
       <c r="C137" s="21"/>
       <c r="D137" s="22"/>
@@ -20172,7 +20173,7 @@
       <c r="BB137" s="31"/>
       <c r="BC137" s="32"/>
     </row>
-    <row r="138" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B138" s="20"/>
       <c r="C138" s="21"/>
       <c r="D138" s="22"/>
@@ -20228,7 +20229,7 @@
       <c r="BB138" s="31"/>
       <c r="BC138" s="32"/>
     </row>
-    <row r="139" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B139" s="20"/>
       <c r="C139" s="21"/>
       <c r="D139" s="22"/>
@@ -20284,7 +20285,7 @@
       <c r="BB139" s="31"/>
       <c r="BC139" s="32"/>
     </row>
-    <row r="140" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B140" s="20"/>
       <c r="C140" s="21"/>
       <c r="D140" s="22"/>
@@ -20340,7 +20341,7 @@
       <c r="BB140" s="31"/>
       <c r="BC140" s="32"/>
     </row>
-    <row r="141" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B141" s="20"/>
       <c r="C141" s="21"/>
       <c r="D141" s="22"/>
@@ -20396,7 +20397,7 @@
       <c r="BB141" s="31"/>
       <c r="BC141" s="32"/>
     </row>
-    <row r="142" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B142" s="20"/>
       <c r="C142" s="21"/>
       <c r="D142" s="22"/>
@@ -20452,7 +20453,7 @@
       <c r="BB142" s="31"/>
       <c r="BC142" s="32"/>
     </row>
-    <row r="143" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B143" s="20"/>
       <c r="C143" s="21"/>
       <c r="D143" s="22"/>
@@ -20508,7 +20509,7 @@
       <c r="BB143" s="31"/>
       <c r="BC143" s="32"/>
     </row>
-    <row r="144" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B144" s="20"/>
       <c r="C144" s="21"/>
       <c r="D144" s="22"/>
@@ -20564,7 +20565,7 @@
       <c r="BB144" s="31"/>
       <c r="BC144" s="32"/>
     </row>
-    <row r="145" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B145" s="20"/>
       <c r="C145" s="21"/>
       <c r="D145" s="22"/>
@@ -20620,7 +20621,7 @@
       <c r="BB145" s="31"/>
       <c r="BC145" s="32"/>
     </row>
-    <row r="146" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B146" s="20"/>
       <c r="C146" s="21"/>
       <c r="D146" s="22"/>
@@ -20676,7 +20677,7 @@
       <c r="BB146" s="31"/>
       <c r="BC146" s="32"/>
     </row>
-    <row r="147" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B147" s="20"/>
       <c r="C147" s="21"/>
       <c r="D147" s="22"/>
@@ -20732,7 +20733,7 @@
       <c r="BB147" s="31"/>
       <c r="BC147" s="32"/>
     </row>
-    <row r="148" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B148" s="20"/>
       <c r="C148" s="21"/>
       <c r="D148" s="22"/>
@@ -20788,7 +20789,7 @@
       <c r="BB148" s="31"/>
       <c r="BC148" s="32"/>
     </row>
-    <row r="149" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B149" s="20"/>
       <c r="C149" s="21"/>
       <c r="D149" s="22"/>
@@ -20844,7 +20845,7 @@
       <c r="BB149" s="31"/>
       <c r="BC149" s="32"/>
     </row>
-    <row r="150" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B150" s="20"/>
       <c r="C150" s="21"/>
       <c r="D150" s="22"/>
@@ -20900,7 +20901,7 @@
       <c r="BB150" s="31"/>
       <c r="BC150" s="32"/>
     </row>
-    <row r="151" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B151" s="20"/>
       <c r="C151" s="21"/>
       <c r="D151" s="22"/>
@@ -20956,7 +20957,7 @@
       <c r="BB151" s="31"/>
       <c r="BC151" s="32"/>
     </row>
-    <row r="152" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B152" s="20"/>
       <c r="C152" s="21"/>
       <c r="D152" s="22"/>
@@ -21012,7 +21013,7 @@
       <c r="BB152" s="31"/>
       <c r="BC152" s="32"/>
     </row>
-    <row r="153" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B153" s="20"/>
       <c r="C153" s="21"/>
       <c r="D153" s="22"/>
@@ -21068,7 +21069,7 @@
       <c r="BB153" s="31"/>
       <c r="BC153" s="32"/>
     </row>
-    <row r="154" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B154" s="20"/>
       <c r="C154" s="21"/>
       <c r="D154" s="22"/>
@@ -21124,7 +21125,7 @@
       <c r="BB154" s="31"/>
       <c r="BC154" s="32"/>
     </row>
-    <row r="155" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B155" s="20"/>
       <c r="C155" s="21"/>
       <c r="D155" s="22"/>
@@ -21180,7 +21181,7 @@
       <c r="BB155" s="31"/>
       <c r="BC155" s="32"/>
     </row>
-    <row r="156" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B156" s="20"/>
       <c r="C156" s="21"/>
       <c r="D156" s="22"/>
@@ -21236,7 +21237,7 @@
       <c r="BB156" s="31"/>
       <c r="BC156" s="32"/>
     </row>
-    <row r="157" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B157" s="20"/>
       <c r="C157" s="21"/>
       <c r="D157" s="22"/>
@@ -21292,7 +21293,7 @@
       <c r="BB157" s="31"/>
       <c r="BC157" s="32"/>
     </row>
-    <row r="158" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B158" s="20"/>
       <c r="C158" s="21"/>
       <c r="D158" s="22"/>
@@ -21348,7 +21349,7 @@
       <c r="BB158" s="31"/>
       <c r="BC158" s="32"/>
     </row>
-    <row r="159" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B159" s="20"/>
       <c r="C159" s="21"/>
       <c r="D159" s="22"/>
@@ -21404,7 +21405,7 @@
       <c r="BB159" s="31"/>
       <c r="BC159" s="32"/>
     </row>
-    <row r="160" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B160" s="20"/>
       <c r="C160" s="21"/>
       <c r="D160" s="22"/>
@@ -21460,7 +21461,7 @@
       <c r="BB160" s="31"/>
       <c r="BC160" s="32"/>
     </row>
-    <row r="161" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B161" s="20"/>
       <c r="C161" s="21"/>
       <c r="D161" s="22"/>
@@ -21516,7 +21517,7 @@
       <c r="BB161" s="31"/>
       <c r="BC161" s="32"/>
     </row>
-    <row r="162" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B162" s="20"/>
       <c r="C162" s="21"/>
       <c r="D162" s="22"/>
@@ -21572,7 +21573,7 @@
       <c r="BB162" s="31"/>
       <c r="BC162" s="32"/>
     </row>
-    <row r="163" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B163" s="20"/>
       <c r="C163" s="21"/>
       <c r="D163" s="22"/>
@@ -21628,7 +21629,7 @@
       <c r="BB163" s="31"/>
       <c r="BC163" s="32"/>
     </row>
-    <row r="164" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B164" s="20"/>
       <c r="C164" s="21"/>
       <c r="D164" s="22"/>
@@ -21684,7 +21685,7 @@
       <c r="BB164" s="31"/>
       <c r="BC164" s="32"/>
     </row>
-    <row r="165" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B165" s="20"/>
       <c r="C165" s="21"/>
       <c r="D165" s="22"/>
@@ -21740,7 +21741,7 @@
       <c r="BB165" s="31"/>
       <c r="BC165" s="32"/>
     </row>
-    <row r="166" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B166" s="20"/>
       <c r="C166" s="21"/>
       <c r="D166" s="22"/>
@@ -21796,7 +21797,7 @@
       <c r="BB166" s="31"/>
       <c r="BC166" s="32"/>
     </row>
-    <row r="167" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B167" s="20"/>
       <c r="C167" s="21"/>
       <c r="D167" s="22"/>
@@ -21851,7 +21852,7 @@
       <c r="BB167" s="31"/>
       <c r="BC167" s="32"/>
     </row>
-    <row r="168" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B168" s="20"/>
       <c r="C168" s="21"/>
       <c r="D168" s="22"/>
@@ -21901,7 +21902,7 @@
       <c r="BB168" s="31"/>
       <c r="BC168" s="32"/>
     </row>
-    <row r="169" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B169" s="20"/>
       <c r="C169" s="21"/>
       <c r="D169" s="22"/>
@@ -21951,7 +21952,7 @@
       <c r="BB169" s="31"/>
       <c r="BC169" s="32"/>
     </row>
-    <row r="170" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B170" s="20"/>
       <c r="C170" s="21"/>
       <c r="D170" s="22"/>
@@ -22001,7 +22002,7 @@
       <c r="BB170" s="31"/>
       <c r="BC170" s="32"/>
     </row>
-    <row r="171" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B171" s="20"/>
       <c r="C171" s="21"/>
       <c r="D171" s="22"/>
@@ -22050,7 +22051,7 @@
       <c r="BB171" s="31"/>
       <c r="BC171" s="32"/>
     </row>
-    <row r="172" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B172" s="20"/>
       <c r="C172" s="21"/>
       <c r="D172" s="22"/>
@@ -22089,7 +22090,7 @@
       <c r="BA172" s="30"/>
       <c r="BC172" s="32"/>
     </row>
-    <row r="173" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B173" s="20"/>
       <c r="C173" s="21"/>
       <c r="D173" s="22"/>
@@ -22113,7 +22114,7 @@
       <c r="AQ173" s="28"/>
       <c r="AR173" s="28"/>
     </row>
-    <row r="174" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:55" x14ac:dyDescent="0.2">
       <c r="B174" s="20"/>
       <c r="C174" s="21"/>
       <c r="D174" s="22"/>

--- a/dependencies/brucella/abortus1/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/brucella/abortus1/script_dependents/Filtered_Regions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/abortus1/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\abortus1\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B8856-BC9B-6147-AF3F-FD3C301A8238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="4660" windowWidth="43400" windowHeight="19120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6375" yWindow="4665" windowWidth="43395" windowHeight="19125" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NC_006932.1" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>1795103-1795155</t>
   </si>
@@ -315,11 +314,17 @@
   <si>
     <t>482225</t>
   </si>
+  <si>
+    <t>701485</t>
+  </si>
+  <si>
+    <t>652894</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1246,7 +1251,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1426,6 +1431,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="279">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
@@ -1701,8 +1709,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 2" xfId="171"/>
+    <cellStyle name="Note 2" xfId="172"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -2042,51 +2050,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+    <sheetView zoomScale="133" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="41" customWidth="1"/>
-    <col min="8" max="9" width="18.83203125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="43" customWidth="1"/>
-    <col min="11" max="12" width="18.83203125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="46" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" style="47" customWidth="1"/>
-    <col min="16" max="17" width="18.83203125" style="48" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" style="49" customWidth="1"/>
-    <col min="19" max="25" width="18.83203125" style="57" customWidth="1"/>
-    <col min="26" max="26" width="18.83203125" style="50" customWidth="1"/>
-    <col min="27" max="30" width="18.83203125" style="51" customWidth="1"/>
-    <col min="31" max="31" width="18.83203125" style="36" customWidth="1"/>
-    <col min="32" max="32" width="18.83203125" style="37" customWidth="1"/>
-    <col min="33" max="33" width="18.83203125" style="38" customWidth="1"/>
-    <col min="34" max="34" width="18.83203125" style="39" customWidth="1"/>
-    <col min="35" max="36" width="18.83203125" style="40" customWidth="1"/>
-    <col min="37" max="37" width="18.83203125" style="41" customWidth="1"/>
-    <col min="38" max="41" width="18.83203125" style="42" customWidth="1"/>
-    <col min="42" max="42" width="18.83203125" style="43" customWidth="1"/>
-    <col min="43" max="44" width="18.83203125" style="44" customWidth="1"/>
-    <col min="45" max="45" width="18.83203125" style="45" customWidth="1"/>
-    <col min="46" max="53" width="18.83203125" style="46" customWidth="1"/>
-    <col min="54" max="54" width="18.83203125" style="47" customWidth="1"/>
-    <col min="55" max="55" width="18.83203125" style="48" customWidth="1"/>
-    <col min="56" max="59" width="18.83203125" style="19" customWidth="1"/>
-    <col min="60" max="16384" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="18.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="41" customWidth="1"/>
+    <col min="8" max="9" width="18.875" style="42" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="43" customWidth="1"/>
+    <col min="11" max="12" width="18.875" style="44" customWidth="1"/>
+    <col min="13" max="13" width="18.875" style="45" customWidth="1"/>
+    <col min="14" max="14" width="18.875" style="46" customWidth="1"/>
+    <col min="15" max="15" width="18.875" style="47" customWidth="1"/>
+    <col min="16" max="17" width="18.875" style="48" customWidth="1"/>
+    <col min="18" max="18" width="18.875" style="49" customWidth="1"/>
+    <col min="19" max="25" width="18.875" style="57" customWidth="1"/>
+    <col min="26" max="26" width="18.875" style="50" customWidth="1"/>
+    <col min="27" max="30" width="18.875" style="51" customWidth="1"/>
+    <col min="31" max="31" width="18.875" style="36" customWidth="1"/>
+    <col min="32" max="32" width="18.875" style="37" customWidth="1"/>
+    <col min="33" max="33" width="18.875" style="38" customWidth="1"/>
+    <col min="34" max="34" width="18.875" style="39" customWidth="1"/>
+    <col min="35" max="36" width="18.875" style="40" customWidth="1"/>
+    <col min="37" max="37" width="18.875" style="41" customWidth="1"/>
+    <col min="38" max="41" width="18.875" style="42" customWidth="1"/>
+    <col min="42" max="42" width="18.875" style="43" customWidth="1"/>
+    <col min="43" max="44" width="18.875" style="44" customWidth="1"/>
+    <col min="45" max="45" width="18.875" style="45" customWidth="1"/>
+    <col min="46" max="53" width="18.875" style="46" customWidth="1"/>
+    <col min="54" max="54" width="18.875" style="47" customWidth="1"/>
+    <col min="55" max="55" width="18.875" style="48" customWidth="1"/>
+    <col min="56" max="59" width="18.875" style="19" customWidth="1"/>
+    <col min="60" max="16384" width="10.875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
@@ -2265,7 +2273,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>23</v>
       </c>
@@ -2398,7 +2406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>24</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>25</v>
       </c>
@@ -2621,7 +2629,7 @@
       <c r="BB4" s="31"/>
       <c r="BC4" s="32"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>26</v>
       </c>
@@ -2708,7 +2716,7 @@
       <c r="BB5" s="31"/>
       <c r="BC5" s="32"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>1083435</v>
       </c>
@@ -2795,7 +2803,7 @@
       <c r="BB6" s="31"/>
       <c r="BC6" s="32"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1083439</v>
       </c>
@@ -2881,7 +2889,10 @@
       <c r="BB7" s="31"/>
       <c r="BC7" s="32"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
@@ -2943,7 +2954,10 @@
       <c r="BB8" s="31"/>
       <c r="BC8" s="32"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
@@ -3005,7 +3019,7 @@
       <c r="BB9" s="31"/>
       <c r="BC9" s="32"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
@@ -3063,7 +3077,7 @@
       <c r="BB10" s="31"/>
       <c r="BC10" s="32"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
@@ -3119,7 +3133,7 @@
       <c r="BB11" s="31"/>
       <c r="BC11" s="32"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
@@ -3175,7 +3189,7 @@
       <c r="BB12" s="31"/>
       <c r="BC12" s="32"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -3231,7 +3245,7 @@
       <c r="BB13" s="31"/>
       <c r="BC13" s="32"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
@@ -3287,7 +3301,7 @@
       <c r="BB14" s="31"/>
       <c r="BC14" s="32"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
@@ -3343,7 +3357,7 @@
       <c r="BB15" s="31"/>
       <c r="BC15" s="32"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
@@ -3399,7 +3413,7 @@
       <c r="BB16" s="31"/>
       <c r="BC16" s="32"/>
     </row>
-    <row r="17" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
@@ -3455,7 +3469,7 @@
       <c r="BB17" s="31"/>
       <c r="BC17" s="32"/>
     </row>
-    <row r="18" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -3511,7 +3525,7 @@
       <c r="BB18" s="31"/>
       <c r="BC18" s="32"/>
     </row>
-    <row r="19" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
@@ -3567,7 +3581,7 @@
       <c r="BB19" s="31"/>
       <c r="BC19" s="32"/>
     </row>
-    <row r="20" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
@@ -3623,7 +3637,7 @@
       <c r="BB20" s="31"/>
       <c r="BC20" s="32"/>
     </row>
-    <row r="21" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
@@ -3679,7 +3693,7 @@
       <c r="BB21" s="31"/>
       <c r="BC21" s="32"/>
     </row>
-    <row r="22" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
@@ -3735,7 +3749,7 @@
       <c r="BB22" s="31"/>
       <c r="BC22" s="32"/>
     </row>
-    <row r="23" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
@@ -3791,7 +3805,7 @@
       <c r="BB23" s="31"/>
       <c r="BC23" s="32"/>
     </row>
-    <row r="24" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
@@ -3847,7 +3861,7 @@
       <c r="BB24" s="31"/>
       <c r="BC24" s="32"/>
     </row>
-    <row r="25" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
@@ -3903,7 +3917,7 @@
       <c r="BB25" s="31"/>
       <c r="BC25" s="32"/>
     </row>
-    <row r="26" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
@@ -3959,7 +3973,7 @@
       <c r="BB26" s="31"/>
       <c r="BC26" s="32"/>
     </row>
-    <row r="27" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
@@ -4015,7 +4029,7 @@
       <c r="BB27" s="31"/>
       <c r="BC27" s="32"/>
     </row>
-    <row r="28" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
@@ -4071,7 +4085,7 @@
       <c r="BB28" s="31"/>
       <c r="BC28" s="32"/>
     </row>
-    <row r="29" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
@@ -4127,7 +4141,7 @@
       <c r="BB29" s="31"/>
       <c r="BC29" s="32"/>
     </row>
-    <row r="30" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
@@ -4183,7 +4197,7 @@
       <c r="BB30" s="31"/>
       <c r="BC30" s="32"/>
     </row>
-    <row r="31" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
@@ -4239,7 +4253,7 @@
       <c r="BB31" s="31"/>
       <c r="BC31" s="32"/>
     </row>
-    <row r="32" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
@@ -4295,7 +4309,7 @@
       <c r="BB32" s="31"/>
       <c r="BC32" s="32"/>
     </row>
-    <row r="33" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
@@ -4351,7 +4365,7 @@
       <c r="BB33" s="31"/>
       <c r="BC33" s="32"/>
     </row>
-    <row r="34" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
@@ -4407,7 +4421,7 @@
       <c r="BB34" s="31"/>
       <c r="BC34" s="32"/>
     </row>
-    <row r="35" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
@@ -4463,7 +4477,7 @@
       <c r="BB35" s="31"/>
       <c r="BC35" s="32"/>
     </row>
-    <row r="36" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
@@ -4519,7 +4533,7 @@
       <c r="BB36" s="31"/>
       <c r="BC36" s="32"/>
     </row>
-    <row r="37" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
@@ -4575,7 +4589,7 @@
       <c r="BB37" s="31"/>
       <c r="BC37" s="32"/>
     </row>
-    <row r="38" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
@@ -4631,7 +4645,7 @@
       <c r="BB38" s="31"/>
       <c r="BC38" s="32"/>
     </row>
-    <row r="39" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
@@ -4687,7 +4701,7 @@
       <c r="BB39" s="31"/>
       <c r="BC39" s="32"/>
     </row>
-    <row r="40" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
       <c r="D40" s="22"/>
@@ -4743,7 +4757,7 @@
       <c r="BB40" s="31"/>
       <c r="BC40" s="32"/>
     </row>
-    <row r="41" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
       <c r="D41" s="22"/>
@@ -4799,7 +4813,7 @@
       <c r="BB41" s="31"/>
       <c r="BC41" s="32"/>
     </row>
-    <row r="42" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="22"/>
@@ -4855,7 +4869,7 @@
       <c r="BB42" s="31"/>
       <c r="BC42" s="32"/>
     </row>
-    <row r="43" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
@@ -4911,7 +4925,7 @@
       <c r="BB43" s="31"/>
       <c r="BC43" s="32"/>
     </row>
-    <row r="44" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
@@ -4967,7 +4981,7 @@
       <c r="BB44" s="31"/>
       <c r="BC44" s="32"/>
     </row>
-    <row r="45" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="22"/>
@@ -5023,7 +5037,7 @@
       <c r="BB45" s="31"/>
       <c r="BC45" s="32"/>
     </row>
-    <row r="46" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
@@ -5079,7 +5093,7 @@
       <c r="BB46" s="31"/>
       <c r="BC46" s="32"/>
     </row>
-    <row r="47" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
       <c r="D47" s="22"/>
@@ -5135,7 +5149,7 @@
       <c r="BB47" s="31"/>
       <c r="BC47" s="32"/>
     </row>
-    <row r="48" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
@@ -5191,7 +5205,7 @@
       <c r="BB48" s="31"/>
       <c r="BC48" s="32"/>
     </row>
-    <row r="49" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
@@ -5247,7 +5261,7 @@
       <c r="BB49" s="31"/>
       <c r="BC49" s="32"/>
     </row>
-    <row r="50" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="22"/>
@@ -5303,7 +5317,7 @@
       <c r="BB50" s="31"/>
       <c r="BC50" s="32"/>
     </row>
-    <row r="51" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
@@ -5359,7 +5373,7 @@
       <c r="BB51" s="31"/>
       <c r="BC51" s="32"/>
     </row>
-    <row r="52" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="22"/>
@@ -5415,7 +5429,7 @@
       <c r="BB52" s="31"/>
       <c r="BC52" s="32"/>
     </row>
-    <row r="53" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
@@ -5471,7 +5485,7 @@
       <c r="BB53" s="31"/>
       <c r="BC53" s="32"/>
     </row>
-    <row r="54" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="22"/>
@@ -5527,7 +5541,7 @@
       <c r="BB54" s="31"/>
       <c r="BC54" s="32"/>
     </row>
-    <row r="55" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
@@ -5583,7 +5597,7 @@
       <c r="BB55" s="31"/>
       <c r="BC55" s="32"/>
     </row>
-    <row r="56" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="22"/>
@@ -5639,7 +5653,7 @@
       <c r="BB56" s="31"/>
       <c r="BC56" s="32"/>
     </row>
-    <row r="57" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="22"/>
@@ -5695,7 +5709,7 @@
       <c r="BB57" s="31"/>
       <c r="BC57" s="32"/>
     </row>
-    <row r="58" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
@@ -5751,7 +5765,7 @@
       <c r="BB58" s="31"/>
       <c r="BC58" s="32"/>
     </row>
-    <row r="59" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
@@ -5807,7 +5821,7 @@
       <c r="BB59" s="31"/>
       <c r="BC59" s="32"/>
     </row>
-    <row r="60" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="22"/>
@@ -5863,7 +5877,7 @@
       <c r="BB60" s="31"/>
       <c r="BC60" s="32"/>
     </row>
-    <row r="61" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
@@ -5919,7 +5933,7 @@
       <c r="BB61" s="31"/>
       <c r="BC61" s="32"/>
     </row>
-    <row r="62" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="22"/>
@@ -5975,7 +5989,7 @@
       <c r="BB62" s="31"/>
       <c r="BC62" s="32"/>
     </row>
-    <row r="63" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
@@ -6031,7 +6045,7 @@
       <c r="BB63" s="31"/>
       <c r="BC63" s="32"/>
     </row>
-    <row r="64" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="22"/>
@@ -6087,7 +6101,7 @@
       <c r="BB64" s="31"/>
       <c r="BC64" s="32"/>
     </row>
-    <row r="65" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B65" s="20"/>
       <c r="C65" s="21"/>
       <c r="D65" s="22"/>
@@ -6143,7 +6157,7 @@
       <c r="BB65" s="31"/>
       <c r="BC65" s="32"/>
     </row>
-    <row r="66" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B66" s="20"/>
       <c r="C66" s="21"/>
       <c r="D66" s="22"/>
@@ -6199,7 +6213,7 @@
       <c r="BB66" s="31"/>
       <c r="BC66" s="32"/>
     </row>
-    <row r="67" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
       <c r="D67" s="22"/>
@@ -6255,7 +6269,7 @@
       <c r="BB67" s="31"/>
       <c r="BC67" s="32"/>
     </row>
-    <row r="68" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
@@ -6311,7 +6325,7 @@
       <c r="BB68" s="31"/>
       <c r="BC68" s="32"/>
     </row>
-    <row r="69" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
       <c r="D69" s="22"/>
@@ -6367,7 +6381,7 @@
       <c r="BB69" s="31"/>
       <c r="BC69" s="32"/>
     </row>
-    <row r="70" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B70" s="20"/>
       <c r="C70" s="21"/>
       <c r="D70" s="22"/>
@@ -6423,7 +6437,7 @@
       <c r="BB70" s="31"/>
       <c r="BC70" s="32"/>
     </row>
-    <row r="71" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B71" s="20"/>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
@@ -6479,7 +6493,7 @@
       <c r="BB71" s="31"/>
       <c r="BC71" s="32"/>
     </row>
-    <row r="72" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
       <c r="D72" s="22"/>
@@ -6535,7 +6549,7 @@
       <c r="BB72" s="31"/>
       <c r="BC72" s="32"/>
     </row>
-    <row r="73" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B73" s="20"/>
       <c r="C73" s="21"/>
       <c r="D73" s="22"/>
@@ -6591,7 +6605,7 @@
       <c r="BB73" s="31"/>
       <c r="BC73" s="32"/>
     </row>
-    <row r="74" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
       <c r="D74" s="22"/>
@@ -6647,7 +6661,7 @@
       <c r="BB74" s="31"/>
       <c r="BC74" s="32"/>
     </row>
-    <row r="75" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
       <c r="D75" s="22"/>
@@ -6703,7 +6717,7 @@
       <c r="BB75" s="31"/>
       <c r="BC75" s="32"/>
     </row>
-    <row r="76" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
       <c r="D76" s="22"/>
@@ -6759,7 +6773,7 @@
       <c r="BB76" s="31"/>
       <c r="BC76" s="32"/>
     </row>
-    <row r="77" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B77" s="20"/>
       <c r="C77" s="21"/>
       <c r="D77" s="22"/>
@@ -6815,7 +6829,7 @@
       <c r="BB77" s="31"/>
       <c r="BC77" s="32"/>
     </row>
-    <row r="78" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B78" s="20"/>
       <c r="C78" s="21"/>
       <c r="D78" s="22"/>
@@ -6871,7 +6885,7 @@
       <c r="BB78" s="31"/>
       <c r="BC78" s="32"/>
     </row>
-    <row r="79" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
       <c r="D79" s="22"/>
@@ -6927,7 +6941,7 @@
       <c r="BB79" s="31"/>
       <c r="BC79" s="32"/>
     </row>
-    <row r="80" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="22"/>
@@ -6983,7 +6997,7 @@
       <c r="BB80" s="31"/>
       <c r="BC80" s="32"/>
     </row>
-    <row r="81" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B81" s="20"/>
       <c r="C81" s="21"/>
       <c r="D81" s="22"/>
@@ -7039,7 +7053,7 @@
       <c r="BB81" s="31"/>
       <c r="BC81" s="32"/>
     </row>
-    <row r="82" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B82" s="20"/>
       <c r="C82" s="21"/>
       <c r="D82" s="22"/>
@@ -7095,7 +7109,7 @@
       <c r="BB82" s="31"/>
       <c r="BC82" s="32"/>
     </row>
-    <row r="83" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
@@ -7151,7 +7165,7 @@
       <c r="BB83" s="31"/>
       <c r="BC83" s="32"/>
     </row>
-    <row r="84" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
@@ -7207,7 +7221,7 @@
       <c r="BB84" s="31"/>
       <c r="BC84" s="32"/>
     </row>
-    <row r="85" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B85" s="20"/>
       <c r="C85" s="21"/>
       <c r="D85" s="22"/>
@@ -7263,7 +7277,7 @@
       <c r="BB85" s="31"/>
       <c r="BC85" s="32"/>
     </row>
-    <row r="86" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="22"/>
@@ -7319,7 +7333,7 @@
       <c r="BB86" s="31"/>
       <c r="BC86" s="32"/>
     </row>
-    <row r="87" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="22"/>
@@ -7375,7 +7389,7 @@
       <c r="BB87" s="31"/>
       <c r="BC87" s="32"/>
     </row>
-    <row r="88" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="22"/>
@@ -7431,7 +7445,7 @@
       <c r="BB88" s="31"/>
       <c r="BC88" s="32"/>
     </row>
-    <row r="89" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="22"/>
@@ -7487,7 +7501,7 @@
       <c r="BB89" s="31"/>
       <c r="BC89" s="32"/>
     </row>
-    <row r="90" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
       <c r="D90" s="22"/>
@@ -7543,7 +7557,7 @@
       <c r="BB90" s="31"/>
       <c r="BC90" s="32"/>
     </row>
-    <row r="91" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
       <c r="D91" s="22"/>
@@ -7599,7 +7613,7 @@
       <c r="BB91" s="31"/>
       <c r="BC91" s="32"/>
     </row>
-    <row r="92" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
       <c r="D92" s="22"/>
@@ -7655,7 +7669,7 @@
       <c r="BB92" s="31"/>
       <c r="BC92" s="32"/>
     </row>
-    <row r="93" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B93" s="20"/>
       <c r="C93" s="21"/>
       <c r="D93" s="22"/>
@@ -7711,7 +7725,7 @@
       <c r="BB93" s="31"/>
       <c r="BC93" s="32"/>
     </row>
-    <row r="94" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B94" s="20"/>
       <c r="C94" s="21"/>
       <c r="D94" s="22"/>
@@ -7767,7 +7781,7 @@
       <c r="BB94" s="31"/>
       <c r="BC94" s="32"/>
     </row>
-    <row r="95" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B95" s="20"/>
       <c r="C95" s="21"/>
       <c r="D95" s="22"/>
@@ -7823,7 +7837,7 @@
       <c r="BB95" s="31"/>
       <c r="BC95" s="32"/>
     </row>
-    <row r="96" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B96" s="20"/>
       <c r="C96" s="21"/>
       <c r="D96" s="22"/>
@@ -7879,7 +7893,7 @@
       <c r="BB96" s="31"/>
       <c r="BC96" s="32"/>
     </row>
-    <row r="97" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B97" s="20"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
@@ -7935,7 +7949,7 @@
       <c r="BB97" s="31"/>
       <c r="BC97" s="32"/>
     </row>
-    <row r="98" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B98" s="20"/>
       <c r="C98" s="21"/>
       <c r="D98" s="22"/>
@@ -7991,7 +8005,7 @@
       <c r="BB98" s="31"/>
       <c r="BC98" s="32"/>
     </row>
-    <row r="99" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B99" s="20"/>
       <c r="C99" s="21"/>
       <c r="D99" s="22"/>
@@ -8047,7 +8061,7 @@
       <c r="BB99" s="31"/>
       <c r="BC99" s="32"/>
     </row>
-    <row r="100" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B100" s="20"/>
       <c r="C100" s="21"/>
       <c r="D100" s="22"/>
@@ -8103,7 +8117,7 @@
       <c r="BB100" s="31"/>
       <c r="BC100" s="32"/>
     </row>
-    <row r="101" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B101" s="20"/>
       <c r="C101" s="21"/>
       <c r="D101" s="22"/>
@@ -8159,7 +8173,7 @@
       <c r="BB101" s="31"/>
       <c r="BC101" s="32"/>
     </row>
-    <row r="102" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B102" s="20"/>
       <c r="C102" s="21"/>
       <c r="D102" s="22"/>
@@ -8215,7 +8229,7 @@
       <c r="BB102" s="31"/>
       <c r="BC102" s="32"/>
     </row>
-    <row r="103" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B103" s="20"/>
       <c r="C103" s="21"/>
       <c r="D103" s="22"/>
@@ -8271,7 +8285,7 @@
       <c r="BB103" s="31"/>
       <c r="BC103" s="32"/>
     </row>
-    <row r="104" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B104" s="20"/>
       <c r="C104" s="21"/>
       <c r="D104" s="22"/>
@@ -8327,7 +8341,7 @@
       <c r="BB104" s="31"/>
       <c r="BC104" s="32"/>
     </row>
-    <row r="105" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B105" s="20"/>
       <c r="C105" s="21"/>
       <c r="D105" s="22"/>
@@ -8383,7 +8397,7 @@
       <c r="BB105" s="31"/>
       <c r="BC105" s="32"/>
     </row>
-    <row r="106" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B106" s="20"/>
       <c r="C106" s="21"/>
       <c r="D106" s="22"/>
@@ -8439,7 +8453,7 @@
       <c r="BB106" s="31"/>
       <c r="BC106" s="32"/>
     </row>
-    <row r="107" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B107" s="20"/>
       <c r="C107" s="21"/>
       <c r="D107" s="22"/>
@@ -8495,7 +8509,7 @@
       <c r="BB107" s="31"/>
       <c r="BC107" s="32"/>
     </row>
-    <row r="108" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B108" s="20"/>
       <c r="C108" s="21"/>
       <c r="D108" s="22"/>
@@ -8551,7 +8565,7 @@
       <c r="BB108" s="31"/>
       <c r="BC108" s="32"/>
     </row>
-    <row r="109" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B109" s="20"/>
       <c r="C109" s="21"/>
       <c r="D109" s="22"/>
@@ -8607,7 +8621,7 @@
       <c r="BB109" s="31"/>
       <c r="BC109" s="32"/>
     </row>
-    <row r="110" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B110" s="20"/>
       <c r="C110" s="21"/>
       <c r="D110" s="22"/>
@@ -8663,7 +8677,7 @@
       <c r="BB110" s="31"/>
       <c r="BC110" s="32"/>
     </row>
-    <row r="111" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B111" s="20"/>
       <c r="C111" s="21"/>
       <c r="D111" s="22"/>
@@ -8719,7 +8733,7 @@
       <c r="BB111" s="31"/>
       <c r="BC111" s="32"/>
     </row>
-    <row r="112" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B112" s="20"/>
       <c r="C112" s="21"/>
       <c r="D112" s="22"/>
@@ -8775,7 +8789,7 @@
       <c r="BB112" s="31"/>
       <c r="BC112" s="32"/>
     </row>
-    <row r="113" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B113" s="20"/>
       <c r="C113" s="21"/>
       <c r="D113" s="22"/>
@@ -8831,7 +8845,7 @@
       <c r="BB113" s="31"/>
       <c r="BC113" s="32"/>
     </row>
-    <row r="114" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B114" s="20"/>
       <c r="C114" s="21"/>
       <c r="D114" s="22"/>
@@ -8887,7 +8901,7 @@
       <c r="BB114" s="31"/>
       <c r="BC114" s="32"/>
     </row>
-    <row r="115" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B115" s="20"/>
       <c r="C115" s="21"/>
       <c r="D115" s="22"/>
@@ -8943,7 +8957,7 @@
       <c r="BB115" s="31"/>
       <c r="BC115" s="32"/>
     </row>
-    <row r="116" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B116" s="20"/>
       <c r="C116" s="21"/>
       <c r="D116" s="22"/>
@@ -8999,7 +9013,7 @@
       <c r="BB116" s="31"/>
       <c r="BC116" s="32"/>
     </row>
-    <row r="117" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B117" s="20"/>
       <c r="C117" s="21"/>
       <c r="D117" s="22"/>
@@ -9055,7 +9069,7 @@
       <c r="BB117" s="31"/>
       <c r="BC117" s="32"/>
     </row>
-    <row r="118" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B118" s="20"/>
       <c r="C118" s="21"/>
       <c r="D118" s="22"/>
@@ -9111,7 +9125,7 @@
       <c r="BB118" s="31"/>
       <c r="BC118" s="32"/>
     </row>
-    <row r="119" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B119" s="20"/>
       <c r="C119" s="21"/>
       <c r="D119" s="22"/>
@@ -9167,7 +9181,7 @@
       <c r="BB119" s="31"/>
       <c r="BC119" s="32"/>
     </row>
-    <row r="120" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B120" s="20"/>
       <c r="C120" s="21"/>
       <c r="D120" s="22"/>
@@ -9223,7 +9237,7 @@
       <c r="BB120" s="31"/>
       <c r="BC120" s="32"/>
     </row>
-    <row r="121" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B121" s="20"/>
       <c r="C121" s="21"/>
       <c r="D121" s="22"/>
@@ -9279,7 +9293,7 @@
       <c r="BB121" s="31"/>
       <c r="BC121" s="32"/>
     </row>
-    <row r="122" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B122" s="20"/>
       <c r="C122" s="21"/>
       <c r="D122" s="22"/>
@@ -9335,7 +9349,7 @@
       <c r="BB122" s="31"/>
       <c r="BC122" s="32"/>
     </row>
-    <row r="123" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B123" s="20"/>
       <c r="C123" s="21"/>
       <c r="D123" s="22"/>
@@ -9391,7 +9405,7 @@
       <c r="BB123" s="31"/>
       <c r="BC123" s="32"/>
     </row>
-    <row r="124" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B124" s="20"/>
       <c r="C124" s="21"/>
       <c r="D124" s="22"/>
@@ -9447,7 +9461,7 @@
       <c r="BB124" s="31"/>
       <c r="BC124" s="32"/>
     </row>
-    <row r="125" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B125" s="20"/>
       <c r="C125" s="21"/>
       <c r="D125" s="22"/>
@@ -9503,7 +9517,7 @@
       <c r="BB125" s="31"/>
       <c r="BC125" s="32"/>
     </row>
-    <row r="126" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B126" s="20"/>
       <c r="C126" s="21"/>
       <c r="D126" s="22"/>
@@ -9559,7 +9573,7 @@
       <c r="BB126" s="31"/>
       <c r="BC126" s="32"/>
     </row>
-    <row r="127" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B127" s="20"/>
       <c r="C127" s="21"/>
       <c r="D127" s="22"/>
@@ -9615,7 +9629,7 @@
       <c r="BB127" s="31"/>
       <c r="BC127" s="32"/>
     </row>
-    <row r="128" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B128" s="20"/>
       <c r="C128" s="21"/>
       <c r="D128" s="22"/>
@@ -9671,7 +9685,7 @@
       <c r="BB128" s="31"/>
       <c r="BC128" s="32"/>
     </row>
-    <row r="129" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B129" s="20"/>
       <c r="C129" s="21"/>
       <c r="D129" s="22"/>
@@ -9727,7 +9741,7 @@
       <c r="BB129" s="31"/>
       <c r="BC129" s="32"/>
     </row>
-    <row r="130" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B130" s="20"/>
       <c r="C130" s="21"/>
       <c r="D130" s="22"/>
@@ -9783,7 +9797,7 @@
       <c r="BB130" s="31"/>
       <c r="BC130" s="32"/>
     </row>
-    <row r="131" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B131" s="20"/>
       <c r="C131" s="21"/>
       <c r="D131" s="22"/>
@@ -9839,7 +9853,7 @@
       <c r="BB131" s="31"/>
       <c r="BC131" s="32"/>
     </row>
-    <row r="132" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B132" s="20"/>
       <c r="C132" s="21"/>
       <c r="D132" s="22"/>
@@ -9895,7 +9909,7 @@
       <c r="BB132" s="31"/>
       <c r="BC132" s="32"/>
     </row>
-    <row r="133" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B133" s="20"/>
       <c r="C133" s="21"/>
       <c r="D133" s="22"/>
@@ -9951,7 +9965,7 @@
       <c r="BB133" s="31"/>
       <c r="BC133" s="32"/>
     </row>
-    <row r="134" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B134" s="20"/>
       <c r="C134" s="21"/>
       <c r="D134" s="22"/>
@@ -10007,7 +10021,7 @@
       <c r="BB134" s="31"/>
       <c r="BC134" s="32"/>
     </row>
-    <row r="135" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B135" s="20"/>
       <c r="C135" s="21"/>
       <c r="D135" s="22"/>
@@ -10063,7 +10077,7 @@
       <c r="BB135" s="31"/>
       <c r="BC135" s="32"/>
     </row>
-    <row r="136" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B136" s="20"/>
       <c r="C136" s="21"/>
       <c r="D136" s="22"/>
@@ -10119,7 +10133,7 @@
       <c r="BB136" s="31"/>
       <c r="BC136" s="32"/>
     </row>
-    <row r="137" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B137" s="20"/>
       <c r="C137" s="21"/>
       <c r="D137" s="22"/>
@@ -10175,7 +10189,7 @@
       <c r="BB137" s="31"/>
       <c r="BC137" s="32"/>
     </row>
-    <row r="138" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B138" s="20"/>
       <c r="C138" s="21"/>
       <c r="D138" s="22"/>
@@ -10231,7 +10245,7 @@
       <c r="BB138" s="31"/>
       <c r="BC138" s="32"/>
     </row>
-    <row r="139" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B139" s="20"/>
       <c r="C139" s="21"/>
       <c r="D139" s="22"/>
@@ -10287,7 +10301,7 @@
       <c r="BB139" s="31"/>
       <c r="BC139" s="32"/>
     </row>
-    <row r="140" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B140" s="20"/>
       <c r="C140" s="21"/>
       <c r="D140" s="22"/>
@@ -10343,7 +10357,7 @@
       <c r="BB140" s="31"/>
       <c r="BC140" s="32"/>
     </row>
-    <row r="141" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B141" s="20"/>
       <c r="C141" s="21"/>
       <c r="D141" s="22"/>
@@ -10399,7 +10413,7 @@
       <c r="BB141" s="31"/>
       <c r="BC141" s="32"/>
     </row>
-    <row r="142" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B142" s="20"/>
       <c r="C142" s="21"/>
       <c r="D142" s="22"/>
@@ -10455,7 +10469,7 @@
       <c r="BB142" s="31"/>
       <c r="BC142" s="32"/>
     </row>
-    <row r="143" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B143" s="20"/>
       <c r="C143" s="21"/>
       <c r="D143" s="22"/>
@@ -10511,7 +10525,7 @@
       <c r="BB143" s="31"/>
       <c r="BC143" s="32"/>
     </row>
-    <row r="144" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B144" s="20"/>
       <c r="C144" s="21"/>
       <c r="D144" s="22"/>
@@ -10567,7 +10581,7 @@
       <c r="BB144" s="31"/>
       <c r="BC144" s="32"/>
     </row>
-    <row r="145" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B145" s="20"/>
       <c r="C145" s="21"/>
       <c r="D145" s="22"/>
@@ -10623,7 +10637,7 @@
       <c r="BB145" s="31"/>
       <c r="BC145" s="32"/>
     </row>
-    <row r="146" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B146" s="20"/>
       <c r="C146" s="21"/>
       <c r="D146" s="22"/>
@@ -10679,7 +10693,7 @@
       <c r="BB146" s="31"/>
       <c r="BC146" s="32"/>
     </row>
-    <row r="147" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B147" s="20"/>
       <c r="C147" s="21"/>
       <c r="D147" s="22"/>
@@ -10735,7 +10749,7 @@
       <c r="BB147" s="31"/>
       <c r="BC147" s="32"/>
     </row>
-    <row r="148" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B148" s="20"/>
       <c r="C148" s="21"/>
       <c r="D148" s="22"/>
@@ -10791,7 +10805,7 @@
       <c r="BB148" s="31"/>
       <c r="BC148" s="32"/>
     </row>
-    <row r="149" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B149" s="20"/>
       <c r="C149" s="21"/>
       <c r="D149" s="22"/>
@@ -10847,7 +10861,7 @@
       <c r="BB149" s="31"/>
       <c r="BC149" s="32"/>
     </row>
-    <row r="150" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B150" s="20"/>
       <c r="C150" s="21"/>
       <c r="D150" s="22"/>
@@ -10903,7 +10917,7 @@
       <c r="BB150" s="31"/>
       <c r="BC150" s="32"/>
     </row>
-    <row r="151" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B151" s="20"/>
       <c r="C151" s="21"/>
       <c r="D151" s="22"/>
@@ -10959,7 +10973,7 @@
       <c r="BB151" s="31"/>
       <c r="BC151" s="32"/>
     </row>
-    <row r="152" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B152" s="20"/>
       <c r="C152" s="21"/>
       <c r="D152" s="22"/>
@@ -11015,7 +11029,7 @@
       <c r="BB152" s="31"/>
       <c r="BC152" s="32"/>
     </row>
-    <row r="153" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B153" s="20"/>
       <c r="C153" s="21"/>
       <c r="D153" s="22"/>
@@ -11071,7 +11085,7 @@
       <c r="BB153" s="31"/>
       <c r="BC153" s="32"/>
     </row>
-    <row r="154" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B154" s="20"/>
       <c r="C154" s="21"/>
       <c r="D154" s="22"/>
@@ -11127,7 +11141,7 @@
       <c r="BB154" s="31"/>
       <c r="BC154" s="32"/>
     </row>
-    <row r="155" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B155" s="20"/>
       <c r="C155" s="21"/>
       <c r="D155" s="22"/>
@@ -11183,7 +11197,7 @@
       <c r="BB155" s="31"/>
       <c r="BC155" s="32"/>
     </row>
-    <row r="156" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B156" s="20"/>
       <c r="C156" s="21"/>
       <c r="D156" s="22"/>
@@ -11239,7 +11253,7 @@
       <c r="BB156" s="31"/>
       <c r="BC156" s="32"/>
     </row>
-    <row r="157" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B157" s="20"/>
       <c r="C157" s="21"/>
       <c r="D157" s="22"/>
@@ -11295,7 +11309,7 @@
       <c r="BB157" s="31"/>
       <c r="BC157" s="32"/>
     </row>
-    <row r="158" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B158" s="20"/>
       <c r="C158" s="21"/>
       <c r="D158" s="22"/>
@@ -11351,7 +11365,7 @@
       <c r="BB158" s="31"/>
       <c r="BC158" s="32"/>
     </row>
-    <row r="159" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B159" s="20"/>
       <c r="C159" s="21"/>
       <c r="D159" s="22"/>
@@ -11407,7 +11421,7 @@
       <c r="BB159" s="31"/>
       <c r="BC159" s="32"/>
     </row>
-    <row r="160" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B160" s="20"/>
       <c r="C160" s="21"/>
       <c r="D160" s="22"/>
@@ -11463,7 +11477,7 @@
       <c r="BB160" s="31"/>
       <c r="BC160" s="32"/>
     </row>
-    <row r="161" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B161" s="20"/>
       <c r="C161" s="21"/>
       <c r="D161" s="22"/>
@@ -11519,7 +11533,7 @@
       <c r="BB161" s="31"/>
       <c r="BC161" s="32"/>
     </row>
-    <row r="162" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B162" s="20"/>
       <c r="C162" s="21"/>
       <c r="D162" s="22"/>
@@ -11575,7 +11589,7 @@
       <c r="BB162" s="31"/>
       <c r="BC162" s="32"/>
     </row>
-    <row r="163" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B163" s="20"/>
       <c r="C163" s="21"/>
       <c r="D163" s="22"/>
@@ -11631,7 +11645,7 @@
       <c r="BB163" s="31"/>
       <c r="BC163" s="32"/>
     </row>
-    <row r="164" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B164" s="20"/>
       <c r="C164" s="21"/>
       <c r="D164" s="22"/>
@@ -11687,7 +11701,7 @@
       <c r="BB164" s="31"/>
       <c r="BC164" s="32"/>
     </row>
-    <row r="165" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B165" s="20"/>
       <c r="C165" s="21"/>
       <c r="D165" s="22"/>
@@ -11743,7 +11757,7 @@
       <c r="BB165" s="31"/>
       <c r="BC165" s="32"/>
     </row>
-    <row r="166" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B166" s="20"/>
       <c r="C166" s="21"/>
       <c r="D166" s="22"/>
@@ -11799,7 +11813,7 @@
       <c r="BB166" s="31"/>
       <c r="BC166" s="32"/>
     </row>
-    <row r="167" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B167" s="20"/>
       <c r="C167" s="21"/>
       <c r="D167" s="22"/>
@@ -11855,7 +11869,7 @@
       <c r="BB167" s="31"/>
       <c r="BC167" s="32"/>
     </row>
-    <row r="168" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B168" s="20"/>
       <c r="C168" s="21"/>
       <c r="D168" s="22"/>
@@ -11911,7 +11925,7 @@
       <c r="BB168" s="31"/>
       <c r="BC168" s="32"/>
     </row>
-    <row r="169" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B169" s="20"/>
       <c r="C169" s="21"/>
       <c r="D169" s="22"/>
@@ -11967,7 +11981,7 @@
       <c r="BB169" s="31"/>
       <c r="BC169" s="32"/>
     </row>
-    <row r="170" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B170" s="20"/>
       <c r="C170" s="21"/>
       <c r="D170" s="22"/>
@@ -12014,7 +12028,7 @@
       <c r="BB170" s="31"/>
       <c r="BC170" s="32"/>
     </row>
-    <row r="171" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B171" s="20"/>
       <c r="C171" s="21"/>
       <c r="D171" s="22"/>
@@ -12061,7 +12075,7 @@
       <c r="BB171" s="31"/>
       <c r="BC171" s="32"/>
     </row>
-    <row r="172" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B172" s="20"/>
       <c r="C172" s="21"/>
       <c r="D172" s="22"/>
@@ -12102,7 +12116,7 @@
       <c r="AR172" s="28"/>
       <c r="BC172" s="32"/>
     </row>
-    <row r="173" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B173" s="20"/>
       <c r="C173" s="21"/>
       <c r="D173" s="22"/>
@@ -12141,7 +12155,7 @@
       <c r="AR173" s="28"/>
       <c r="BC173" s="32"/>
     </row>
-    <row r="174" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B174" s="20"/>
       <c r="C174" s="21"/>
       <c r="D174" s="22"/>
@@ -12182,52 +12196,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG174"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="41" customWidth="1"/>
-    <col min="8" max="9" width="15.33203125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="43" customWidth="1"/>
-    <col min="11" max="12" width="15.33203125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="46" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="47" customWidth="1"/>
-    <col min="16" max="17" width="15.33203125" style="48" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="49" customWidth="1"/>
-    <col min="19" max="25" width="15.33203125" style="57" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" style="50" customWidth="1"/>
-    <col min="27" max="30" width="15.33203125" style="51" customWidth="1"/>
-    <col min="31" max="31" width="15.33203125" style="36" customWidth="1"/>
-    <col min="32" max="32" width="15.33203125" style="37" customWidth="1"/>
-    <col min="33" max="33" width="15.33203125" style="38" customWidth="1"/>
-    <col min="34" max="34" width="15.33203125" style="39" customWidth="1"/>
-    <col min="35" max="35" width="15.33203125" style="40" customWidth="1"/>
-    <col min="36" max="36" width="16.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="41" customWidth="1"/>
+    <col min="8" max="9" width="15.375" style="42" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="43" customWidth="1"/>
+    <col min="11" max="12" width="15.375" style="44" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="46" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="47" customWidth="1"/>
+    <col min="16" max="17" width="15.375" style="48" customWidth="1"/>
+    <col min="18" max="18" width="15.375" style="49" customWidth="1"/>
+    <col min="19" max="25" width="15.375" style="57" customWidth="1"/>
+    <col min="26" max="26" width="15.375" style="50" customWidth="1"/>
+    <col min="27" max="30" width="15.375" style="51" customWidth="1"/>
+    <col min="31" max="31" width="15.375" style="36" customWidth="1"/>
+    <col min="32" max="32" width="15.375" style="37" customWidth="1"/>
+    <col min="33" max="33" width="15.375" style="38" customWidth="1"/>
+    <col min="34" max="34" width="15.375" style="39" customWidth="1"/>
+    <col min="35" max="35" width="15.375" style="40" customWidth="1"/>
+    <col min="36" max="36" width="16.125" style="40" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="17.5" style="41" customWidth="1"/>
-    <col min="38" max="41" width="15.33203125" style="42" customWidth="1"/>
-    <col min="42" max="42" width="15.33203125" style="43" customWidth="1"/>
-    <col min="43" max="44" width="15.33203125" style="44" customWidth="1"/>
-    <col min="45" max="45" width="15.33203125" style="45" customWidth="1"/>
-    <col min="46" max="53" width="15.33203125" style="46" customWidth="1"/>
-    <col min="54" max="54" width="15.33203125" style="47" customWidth="1"/>
-    <col min="55" max="55" width="15.33203125" style="48" customWidth="1"/>
-    <col min="56" max="59" width="15.33203125" style="19" customWidth="1"/>
-    <col min="60" max="16384" width="10.83203125" style="19"/>
+    <col min="38" max="41" width="15.375" style="42" customWidth="1"/>
+    <col min="42" max="42" width="15.375" style="43" customWidth="1"/>
+    <col min="43" max="44" width="15.375" style="44" customWidth="1"/>
+    <col min="45" max="45" width="15.375" style="45" customWidth="1"/>
+    <col min="46" max="53" width="15.375" style="46" customWidth="1"/>
+    <col min="54" max="54" width="15.375" style="47" customWidth="1"/>
+    <col min="55" max="55" width="15.375" style="48" customWidth="1"/>
+    <col min="56" max="59" width="15.375" style="19" customWidth="1"/>
+    <col min="60" max="16384" width="10.875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
@@ -12406,7 +12420,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>14</v>
       </c>
@@ -12457,8 +12471,12 @@
       <c r="AH2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
+      <c r="AI2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="AK2" s="53">
         <v>701935</v>
       </c>
@@ -12509,7 +12527,7 @@
       </c>
       <c r="BC2" s="32"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>8</v>
       </c>
@@ -12551,7 +12569,9 @@
       <c r="AG3" s="22"/>
       <c r="AH3" s="23"/>
       <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
+      <c r="AJ3" s="53" t="s">
+        <v>11</v>
+      </c>
       <c r="AK3" s="53">
         <v>71693</v>
       </c>
@@ -12602,7 +12622,7 @@
       </c>
       <c r="BC3" s="32"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
@@ -12686,7 +12706,7 @@
       <c r="BB4" s="31"/>
       <c r="BC4" s="32"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
@@ -12762,7 +12782,7 @@
       <c r="BB5" s="31"/>
       <c r="BC5" s="32"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
@@ -12837,7 +12857,7 @@
       <c r="BB6" s="31"/>
       <c r="BC6" s="32"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
@@ -12893,7 +12913,7 @@
       <c r="BB7" s="31"/>
       <c r="BC7" s="32"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
@@ -12949,7 +12969,7 @@
       <c r="BB8" s="31"/>
       <c r="BC8" s="32"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
@@ -13005,7 +13025,7 @@
       <c r="BB9" s="31"/>
       <c r="BC9" s="32"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
@@ -13061,7 +13081,7 @@
       <c r="BB10" s="31"/>
       <c r="BC10" s="32"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
@@ -13117,7 +13137,7 @@
       <c r="BB11" s="31"/>
       <c r="BC11" s="32"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
@@ -13173,7 +13193,7 @@
       <c r="BB12" s="31"/>
       <c r="BC12" s="32"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -13229,7 +13249,7 @@
       <c r="BB13" s="31"/>
       <c r="BC13" s="32"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
@@ -13285,7 +13305,7 @@
       <c r="BB14" s="31"/>
       <c r="BC14" s="32"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
@@ -13341,7 +13361,7 @@
       <c r="BB15" s="31"/>
       <c r="BC15" s="32"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
@@ -13397,7 +13417,7 @@
       <c r="BB16" s="31"/>
       <c r="BC16" s="32"/>
     </row>
-    <row r="17" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
@@ -13453,7 +13473,7 @@
       <c r="BB17" s="31"/>
       <c r="BC17" s="32"/>
     </row>
-    <row r="18" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -13509,7 +13529,7 @@
       <c r="BB18" s="31"/>
       <c r="BC18" s="32"/>
     </row>
-    <row r="19" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
@@ -13565,7 +13585,7 @@
       <c r="BB19" s="31"/>
       <c r="BC19" s="32"/>
     </row>
-    <row r="20" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
@@ -13621,7 +13641,7 @@
       <c r="BB20" s="31"/>
       <c r="BC20" s="32"/>
     </row>
-    <row r="21" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
@@ -13677,7 +13697,7 @@
       <c r="BB21" s="31"/>
       <c r="BC21" s="32"/>
     </row>
-    <row r="22" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
@@ -13733,7 +13753,7 @@
       <c r="BB22" s="31"/>
       <c r="BC22" s="32"/>
     </row>
-    <row r="23" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
@@ -13789,7 +13809,7 @@
       <c r="BB23" s="31"/>
       <c r="BC23" s="32"/>
     </row>
-    <row r="24" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
@@ -13845,7 +13865,7 @@
       <c r="BB24" s="31"/>
       <c r="BC24" s="32"/>
     </row>
-    <row r="25" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
@@ -13901,7 +13921,7 @@
       <c r="BB25" s="31"/>
       <c r="BC25" s="32"/>
     </row>
-    <row r="26" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
@@ -13957,7 +13977,7 @@
       <c r="BB26" s="31"/>
       <c r="BC26" s="32"/>
     </row>
-    <row r="27" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
@@ -14013,7 +14033,7 @@
       <c r="BB27" s="31"/>
       <c r="BC27" s="32"/>
     </row>
-    <row r="28" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
@@ -14069,7 +14089,7 @@
       <c r="BB28" s="31"/>
       <c r="BC28" s="32"/>
     </row>
-    <row r="29" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
@@ -14125,7 +14145,7 @@
       <c r="BB29" s="31"/>
       <c r="BC29" s="32"/>
     </row>
-    <row r="30" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
@@ -14181,7 +14201,7 @@
       <c r="BB30" s="31"/>
       <c r="BC30" s="32"/>
     </row>
-    <row r="31" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
@@ -14237,7 +14257,7 @@
       <c r="BB31" s="31"/>
       <c r="BC31" s="32"/>
     </row>
-    <row r="32" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
@@ -14293,7 +14313,7 @@
       <c r="BB32" s="31"/>
       <c r="BC32" s="32"/>
     </row>
-    <row r="33" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
@@ -14349,7 +14369,7 @@
       <c r="BB33" s="31"/>
       <c r="BC33" s="32"/>
     </row>
-    <row r="34" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
@@ -14405,7 +14425,7 @@
       <c r="BB34" s="31"/>
       <c r="BC34" s="32"/>
     </row>
-    <row r="35" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
@@ -14461,7 +14481,7 @@
       <c r="BB35" s="31"/>
       <c r="BC35" s="32"/>
     </row>
-    <row r="36" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
@@ -14517,7 +14537,7 @@
       <c r="BB36" s="31"/>
       <c r="BC36" s="32"/>
     </row>
-    <row r="37" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
@@ -14573,7 +14593,7 @@
       <c r="BB37" s="31"/>
       <c r="BC37" s="32"/>
     </row>
-    <row r="38" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
@@ -14629,7 +14649,7 @@
       <c r="BB38" s="31"/>
       <c r="BC38" s="32"/>
     </row>
-    <row r="39" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
@@ -14685,7 +14705,7 @@
       <c r="BB39" s="31"/>
       <c r="BC39" s="32"/>
     </row>
-    <row r="40" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
       <c r="D40" s="22"/>
@@ -14741,7 +14761,7 @@
       <c r="BB40" s="31"/>
       <c r="BC40" s="32"/>
     </row>
-    <row r="41" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
       <c r="D41" s="22"/>
@@ -14797,7 +14817,7 @@
       <c r="BB41" s="31"/>
       <c r="BC41" s="32"/>
     </row>
-    <row r="42" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="22"/>
@@ -14853,7 +14873,7 @@
       <c r="BB42" s="31"/>
       <c r="BC42" s="32"/>
     </row>
-    <row r="43" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
@@ -14909,7 +14929,7 @@
       <c r="BB43" s="31"/>
       <c r="BC43" s="32"/>
     </row>
-    <row r="44" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
@@ -14965,7 +14985,7 @@
       <c r="BB44" s="31"/>
       <c r="BC44" s="32"/>
     </row>
-    <row r="45" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="22"/>
@@ -15021,7 +15041,7 @@
       <c r="BB45" s="31"/>
       <c r="BC45" s="32"/>
     </row>
-    <row r="46" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
@@ -15077,7 +15097,7 @@
       <c r="BB46" s="31"/>
       <c r="BC46" s="32"/>
     </row>
-    <row r="47" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
       <c r="D47" s="22"/>
@@ -15133,7 +15153,7 @@
       <c r="BB47" s="31"/>
       <c r="BC47" s="32"/>
     </row>
-    <row r="48" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
@@ -15189,7 +15209,7 @@
       <c r="BB48" s="31"/>
       <c r="BC48" s="32"/>
     </row>
-    <row r="49" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
@@ -15245,7 +15265,7 @@
       <c r="BB49" s="31"/>
       <c r="BC49" s="32"/>
     </row>
-    <row r="50" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="22"/>
@@ -15301,7 +15321,7 @@
       <c r="BB50" s="31"/>
       <c r="BC50" s="32"/>
     </row>
-    <row r="51" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
@@ -15357,7 +15377,7 @@
       <c r="BB51" s="31"/>
       <c r="BC51" s="32"/>
     </row>
-    <row r="52" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="22"/>
@@ -15413,7 +15433,7 @@
       <c r="BB52" s="31"/>
       <c r="BC52" s="32"/>
     </row>
-    <row r="53" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
@@ -15469,7 +15489,7 @@
       <c r="BB53" s="31"/>
       <c r="BC53" s="32"/>
     </row>
-    <row r="54" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="22"/>
@@ -15525,7 +15545,7 @@
       <c r="BB54" s="31"/>
       <c r="BC54" s="32"/>
     </row>
-    <row r="55" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
@@ -15581,7 +15601,7 @@
       <c r="BB55" s="31"/>
       <c r="BC55" s="32"/>
     </row>
-    <row r="56" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="22"/>
@@ -15637,7 +15657,7 @@
       <c r="BB56" s="31"/>
       <c r="BC56" s="32"/>
     </row>
-    <row r="57" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="22"/>
@@ -15693,7 +15713,7 @@
       <c r="BB57" s="31"/>
       <c r="BC57" s="32"/>
     </row>
-    <row r="58" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
@@ -15749,7 +15769,7 @@
       <c r="BB58" s="31"/>
       <c r="BC58" s="32"/>
     </row>
-    <row r="59" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
@@ -15805,7 +15825,7 @@
       <c r="BB59" s="31"/>
       <c r="BC59" s="32"/>
     </row>
-    <row r="60" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="22"/>
@@ -15861,7 +15881,7 @@
       <c r="BB60" s="31"/>
       <c r="BC60" s="32"/>
     </row>
-    <row r="61" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
@@ -15917,7 +15937,7 @@
       <c r="BB61" s="31"/>
       <c r="BC61" s="32"/>
     </row>
-    <row r="62" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="22"/>
@@ -15973,7 +15993,7 @@
       <c r="BB62" s="31"/>
       <c r="BC62" s="32"/>
     </row>
-    <row r="63" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
@@ -16029,7 +16049,7 @@
       <c r="BB63" s="31"/>
       <c r="BC63" s="32"/>
     </row>
-    <row r="64" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="22"/>
@@ -16085,7 +16105,7 @@
       <c r="BB64" s="31"/>
       <c r="BC64" s="32"/>
     </row>
-    <row r="65" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B65" s="20"/>
       <c r="C65" s="21"/>
       <c r="D65" s="22"/>
@@ -16141,7 +16161,7 @@
       <c r="BB65" s="31"/>
       <c r="BC65" s="32"/>
     </row>
-    <row r="66" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B66" s="20"/>
       <c r="C66" s="21"/>
       <c r="D66" s="22"/>
@@ -16197,7 +16217,7 @@
       <c r="BB66" s="31"/>
       <c r="BC66" s="32"/>
     </row>
-    <row r="67" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
       <c r="D67" s="22"/>
@@ -16253,7 +16273,7 @@
       <c r="BB67" s="31"/>
       <c r="BC67" s="32"/>
     </row>
-    <row r="68" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
@@ -16309,7 +16329,7 @@
       <c r="BB68" s="31"/>
       <c r="BC68" s="32"/>
     </row>
-    <row r="69" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
       <c r="D69" s="22"/>
@@ -16365,7 +16385,7 @@
       <c r="BB69" s="31"/>
       <c r="BC69" s="32"/>
     </row>
-    <row r="70" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B70" s="20"/>
       <c r="C70" s="21"/>
       <c r="D70" s="22"/>
@@ -16421,7 +16441,7 @@
       <c r="BB70" s="31"/>
       <c r="BC70" s="32"/>
     </row>
-    <row r="71" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B71" s="20"/>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
@@ -16477,7 +16497,7 @@
       <c r="BB71" s="31"/>
       <c r="BC71" s="32"/>
     </row>
-    <row r="72" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
       <c r="D72" s="22"/>
@@ -16533,7 +16553,7 @@
       <c r="BB72" s="31"/>
       <c r="BC72" s="32"/>
     </row>
-    <row r="73" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B73" s="20"/>
       <c r="C73" s="21"/>
       <c r="D73" s="22"/>
@@ -16589,7 +16609,7 @@
       <c r="BB73" s="31"/>
       <c r="BC73" s="32"/>
     </row>
-    <row r="74" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
       <c r="D74" s="22"/>
@@ -16645,7 +16665,7 @@
       <c r="BB74" s="31"/>
       <c r="BC74" s="32"/>
     </row>
-    <row r="75" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
       <c r="D75" s="22"/>
@@ -16701,7 +16721,7 @@
       <c r="BB75" s="31"/>
       <c r="BC75" s="32"/>
     </row>
-    <row r="76" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
       <c r="D76" s="22"/>
@@ -16757,7 +16777,7 @@
       <c r="BB76" s="31"/>
       <c r="BC76" s="32"/>
     </row>
-    <row r="77" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B77" s="20"/>
       <c r="C77" s="21"/>
       <c r="D77" s="22"/>
@@ -16813,7 +16833,7 @@
       <c r="BB77" s="31"/>
       <c r="BC77" s="32"/>
     </row>
-    <row r="78" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B78" s="20"/>
       <c r="C78" s="21"/>
       <c r="D78" s="22"/>
@@ -16869,7 +16889,7 @@
       <c r="BB78" s="31"/>
       <c r="BC78" s="32"/>
     </row>
-    <row r="79" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
       <c r="D79" s="22"/>
@@ -16925,7 +16945,7 @@
       <c r="BB79" s="31"/>
       <c r="BC79" s="32"/>
     </row>
-    <row r="80" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="22"/>
@@ -16981,7 +17001,7 @@
       <c r="BB80" s="31"/>
       <c r="BC80" s="32"/>
     </row>
-    <row r="81" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B81" s="20"/>
       <c r="C81" s="21"/>
       <c r="D81" s="22"/>
@@ -17037,7 +17057,7 @@
       <c r="BB81" s="31"/>
       <c r="BC81" s="32"/>
     </row>
-    <row r="82" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B82" s="20"/>
       <c r="C82" s="21"/>
       <c r="D82" s="22"/>
@@ -17093,7 +17113,7 @@
       <c r="BB82" s="31"/>
       <c r="BC82" s="32"/>
     </row>
-    <row r="83" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
@@ -17149,7 +17169,7 @@
       <c r="BB83" s="31"/>
       <c r="BC83" s="32"/>
     </row>
-    <row r="84" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
@@ -17205,7 +17225,7 @@
       <c r="BB84" s="31"/>
       <c r="BC84" s="32"/>
     </row>
-    <row r="85" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B85" s="20"/>
       <c r="C85" s="21"/>
       <c r="D85" s="22"/>
@@ -17261,7 +17281,7 @@
       <c r="BB85" s="31"/>
       <c r="BC85" s="32"/>
     </row>
-    <row r="86" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="22"/>
@@ -17317,7 +17337,7 @@
       <c r="BB86" s="31"/>
       <c r="BC86" s="32"/>
     </row>
-    <row r="87" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="22"/>
@@ -17373,7 +17393,7 @@
       <c r="BB87" s="31"/>
       <c r="BC87" s="32"/>
     </row>
-    <row r="88" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="22"/>
@@ -17429,7 +17449,7 @@
       <c r="BB88" s="31"/>
       <c r="BC88" s="32"/>
     </row>
-    <row r="89" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="22"/>
@@ -17485,7 +17505,7 @@
       <c r="BB89" s="31"/>
       <c r="BC89" s="32"/>
     </row>
-    <row r="90" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
       <c r="D90" s="22"/>
@@ -17541,7 +17561,7 @@
       <c r="BB90" s="31"/>
       <c r="BC90" s="32"/>
     </row>
-    <row r="91" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
       <c r="D91" s="22"/>
@@ -17597,7 +17617,7 @@
       <c r="BB91" s="31"/>
       <c r="BC91" s="32"/>
     </row>
-    <row r="92" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
       <c r="D92" s="22"/>
@@ -17653,7 +17673,7 @@
       <c r="BB92" s="31"/>
       <c r="BC92" s="32"/>
     </row>
-    <row r="93" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B93" s="20"/>
       <c r="C93" s="21"/>
       <c r="D93" s="22"/>
@@ -17709,7 +17729,7 @@
       <c r="BB93" s="31"/>
       <c r="BC93" s="32"/>
     </row>
-    <row r="94" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B94" s="20"/>
       <c r="C94" s="21"/>
       <c r="D94" s="22"/>
@@ -17765,7 +17785,7 @@
       <c r="BB94" s="31"/>
       <c r="BC94" s="32"/>
     </row>
-    <row r="95" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B95" s="20"/>
       <c r="C95" s="21"/>
       <c r="D95" s="22"/>
@@ -17821,7 +17841,7 @@
       <c r="BB95" s="31"/>
       <c r="BC95" s="32"/>
     </row>
-    <row r="96" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B96" s="20"/>
       <c r="C96" s="21"/>
       <c r="D96" s="22"/>
@@ -17877,7 +17897,7 @@
       <c r="BB96" s="31"/>
       <c r="BC96" s="32"/>
     </row>
-    <row r="97" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B97" s="20"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
@@ -17933,7 +17953,7 @@
       <c r="BB97" s="31"/>
       <c r="BC97" s="32"/>
     </row>
-    <row r="98" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B98" s="20"/>
       <c r="C98" s="21"/>
       <c r="D98" s="22"/>
@@ -17989,7 +18009,7 @@
       <c r="BB98" s="31"/>
       <c r="BC98" s="32"/>
     </row>
-    <row r="99" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B99" s="20"/>
       <c r="C99" s="21"/>
       <c r="D99" s="22"/>
@@ -18045,7 +18065,7 @@
       <c r="BB99" s="31"/>
       <c r="BC99" s="32"/>
     </row>
-    <row r="100" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B100" s="20"/>
       <c r="C100" s="21"/>
       <c r="D100" s="22"/>
@@ -18101,7 +18121,7 @@
       <c r="BB100" s="31"/>
       <c r="BC100" s="32"/>
     </row>
-    <row r="101" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B101" s="20"/>
       <c r="C101" s="21"/>
       <c r="D101" s="22"/>
@@ -18157,7 +18177,7 @@
       <c r="BB101" s="31"/>
       <c r="BC101" s="32"/>
     </row>
-    <row r="102" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B102" s="20"/>
       <c r="C102" s="21"/>
       <c r="D102" s="22"/>
@@ -18213,7 +18233,7 @@
       <c r="BB102" s="31"/>
       <c r="BC102" s="32"/>
     </row>
-    <row r="103" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B103" s="20"/>
       <c r="C103" s="21"/>
       <c r="D103" s="22"/>
@@ -18269,7 +18289,7 @@
       <c r="BB103" s="31"/>
       <c r="BC103" s="32"/>
     </row>
-    <row r="104" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B104" s="20"/>
       <c r="C104" s="21"/>
       <c r="D104" s="22"/>
@@ -18325,7 +18345,7 @@
       <c r="BB104" s="31"/>
       <c r="BC104" s="32"/>
     </row>
-    <row r="105" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B105" s="20"/>
       <c r="C105" s="21"/>
       <c r="D105" s="22"/>
@@ -18381,7 +18401,7 @@
       <c r="BB105" s="31"/>
       <c r="BC105" s="32"/>
     </row>
-    <row r="106" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B106" s="20"/>
       <c r="C106" s="21"/>
       <c r="D106" s="22"/>
@@ -18437,7 +18457,7 @@
       <c r="BB106" s="31"/>
       <c r="BC106" s="32"/>
     </row>
-    <row r="107" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B107" s="20"/>
       <c r="C107" s="21"/>
       <c r="D107" s="22"/>
@@ -18493,7 +18513,7 @@
       <c r="BB107" s="31"/>
       <c r="BC107" s="32"/>
     </row>
-    <row r="108" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B108" s="20"/>
       <c r="C108" s="21"/>
       <c r="D108" s="22"/>
@@ -18549,7 +18569,7 @@
       <c r="BB108" s="31"/>
       <c r="BC108" s="32"/>
     </row>
-    <row r="109" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B109" s="20"/>
       <c r="C109" s="21"/>
       <c r="D109" s="22"/>
@@ -18605,7 +18625,7 @@
       <c r="BB109" s="31"/>
       <c r="BC109" s="32"/>
     </row>
-    <row r="110" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B110" s="20"/>
       <c r="C110" s="21"/>
       <c r="D110" s="22"/>
@@ -18661,7 +18681,7 @@
       <c r="BB110" s="31"/>
       <c r="BC110" s="32"/>
     </row>
-    <row r="111" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B111" s="20"/>
       <c r="C111" s="21"/>
       <c r="D111" s="22"/>
@@ -18717,7 +18737,7 @@
       <c r="BB111" s="31"/>
       <c r="BC111" s="32"/>
     </row>
-    <row r="112" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B112" s="20"/>
       <c r="C112" s="21"/>
       <c r="D112" s="22"/>
@@ -18773,7 +18793,7 @@
       <c r="BB112" s="31"/>
       <c r="BC112" s="32"/>
     </row>
-    <row r="113" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B113" s="20"/>
       <c r="C113" s="21"/>
       <c r="D113" s="22"/>
@@ -18829,7 +18849,7 @@
       <c r="BB113" s="31"/>
       <c r="BC113" s="32"/>
     </row>
-    <row r="114" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B114" s="20"/>
       <c r="C114" s="21"/>
       <c r="D114" s="22"/>
@@ -18885,7 +18905,7 @@
       <c r="BB114" s="31"/>
       <c r="BC114" s="32"/>
     </row>
-    <row r="115" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B115" s="20"/>
       <c r="C115" s="21"/>
       <c r="D115" s="22"/>
@@ -18941,7 +18961,7 @@
       <c r="BB115" s="31"/>
       <c r="BC115" s="32"/>
     </row>
-    <row r="116" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B116" s="20"/>
       <c r="C116" s="21"/>
       <c r="D116" s="22"/>
@@ -18997,7 +19017,7 @@
       <c r="BB116" s="31"/>
       <c r="BC116" s="32"/>
     </row>
-    <row r="117" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B117" s="20"/>
       <c r="C117" s="21"/>
       <c r="D117" s="22"/>
@@ -19053,7 +19073,7 @@
       <c r="BB117" s="31"/>
       <c r="BC117" s="32"/>
     </row>
-    <row r="118" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B118" s="20"/>
       <c r="C118" s="21"/>
       <c r="D118" s="22"/>
@@ -19109,7 +19129,7 @@
       <c r="BB118" s="31"/>
       <c r="BC118" s="32"/>
     </row>
-    <row r="119" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B119" s="20"/>
       <c r="C119" s="21"/>
       <c r="D119" s="22"/>
@@ -19165,7 +19185,7 @@
       <c r="BB119" s="31"/>
       <c r="BC119" s="32"/>
     </row>
-    <row r="120" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B120" s="20"/>
       <c r="C120" s="21"/>
       <c r="D120" s="22"/>
@@ -19221,7 +19241,7 @@
       <c r="BB120" s="31"/>
       <c r="BC120" s="32"/>
     </row>
-    <row r="121" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B121" s="20"/>
       <c r="C121" s="21"/>
       <c r="D121" s="22"/>
@@ -19277,7 +19297,7 @@
       <c r="BB121" s="31"/>
       <c r="BC121" s="32"/>
     </row>
-    <row r="122" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B122" s="20"/>
       <c r="C122" s="21"/>
       <c r="D122" s="22"/>
@@ -19333,7 +19353,7 @@
       <c r="BB122" s="31"/>
       <c r="BC122" s="32"/>
     </row>
-    <row r="123" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B123" s="20"/>
       <c r="C123" s="21"/>
       <c r="D123" s="22"/>
@@ -19389,7 +19409,7 @@
       <c r="BB123" s="31"/>
       <c r="BC123" s="32"/>
     </row>
-    <row r="124" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B124" s="20"/>
       <c r="C124" s="21"/>
       <c r="D124" s="22"/>
@@ -19445,7 +19465,7 @@
       <c r="BB124" s="31"/>
       <c r="BC124" s="32"/>
     </row>
-    <row r="125" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B125" s="20"/>
       <c r="C125" s="21"/>
       <c r="D125" s="22"/>
@@ -19501,7 +19521,7 @@
       <c r="BB125" s="31"/>
       <c r="BC125" s="32"/>
     </row>
-    <row r="126" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B126" s="20"/>
       <c r="C126" s="21"/>
       <c r="D126" s="22"/>
@@ -19557,7 +19577,7 @@
       <c r="BB126" s="31"/>
       <c r="BC126" s="32"/>
     </row>
-    <row r="127" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B127" s="20"/>
       <c r="C127" s="21"/>
       <c r="D127" s="22"/>
@@ -19613,7 +19633,7 @@
       <c r="BB127" s="31"/>
       <c r="BC127" s="32"/>
     </row>
-    <row r="128" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B128" s="20"/>
       <c r="C128" s="21"/>
       <c r="D128" s="22"/>
@@ -19669,7 +19689,7 @@
       <c r="BB128" s="31"/>
       <c r="BC128" s="32"/>
     </row>
-    <row r="129" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B129" s="20"/>
       <c r="C129" s="21"/>
       <c r="D129" s="22"/>
@@ -19725,7 +19745,7 @@
       <c r="BB129" s="31"/>
       <c r="BC129" s="32"/>
     </row>
-    <row r="130" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B130" s="20"/>
       <c r="C130" s="21"/>
       <c r="D130" s="22"/>
@@ -19781,7 +19801,7 @@
       <c r="BB130" s="31"/>
       <c r="BC130" s="32"/>
     </row>
-    <row r="131" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B131" s="20"/>
       <c r="C131" s="21"/>
       <c r="D131" s="22"/>
@@ -19837,7 +19857,7 @@
       <c r="BB131" s="31"/>
       <c r="BC131" s="32"/>
     </row>
-    <row r="132" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B132" s="20"/>
       <c r="C132" s="21"/>
       <c r="D132" s="22"/>
@@ -19893,7 +19913,7 @@
       <c r="BB132" s="31"/>
       <c r="BC132" s="32"/>
     </row>
-    <row r="133" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B133" s="20"/>
       <c r="C133" s="21"/>
       <c r="D133" s="22"/>
@@ -19949,7 +19969,7 @@
       <c r="BB133" s="31"/>
       <c r="BC133" s="32"/>
     </row>
-    <row r="134" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B134" s="20"/>
       <c r="C134" s="21"/>
       <c r="D134" s="22"/>
@@ -20005,7 +20025,7 @@
       <c r="BB134" s="31"/>
       <c r="BC134" s="32"/>
     </row>
-    <row r="135" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B135" s="20"/>
       <c r="C135" s="21"/>
       <c r="D135" s="22"/>
@@ -20061,7 +20081,7 @@
       <c r="BB135" s="31"/>
       <c r="BC135" s="32"/>
     </row>
-    <row r="136" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B136" s="20"/>
       <c r="C136" s="21"/>
       <c r="D136" s="22"/>
@@ -20117,7 +20137,7 @@
       <c r="BB136" s="31"/>
       <c r="BC136" s="32"/>
     </row>
-    <row r="137" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B137" s="20"/>
       <c r="C137" s="21"/>
       <c r="D137" s="22"/>
@@ -20173,7 +20193,7 @@
       <c r="BB137" s="31"/>
       <c r="BC137" s="32"/>
     </row>
-    <row r="138" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B138" s="20"/>
       <c r="C138" s="21"/>
       <c r="D138" s="22"/>
@@ -20229,7 +20249,7 @@
       <c r="BB138" s="31"/>
       <c r="BC138" s="32"/>
     </row>
-    <row r="139" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B139" s="20"/>
       <c r="C139" s="21"/>
       <c r="D139" s="22"/>
@@ -20285,7 +20305,7 @@
       <c r="BB139" s="31"/>
       <c r="BC139" s="32"/>
     </row>
-    <row r="140" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B140" s="20"/>
       <c r="C140" s="21"/>
       <c r="D140" s="22"/>
@@ -20341,7 +20361,7 @@
       <c r="BB140" s="31"/>
       <c r="BC140" s="32"/>
     </row>
-    <row r="141" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B141" s="20"/>
       <c r="C141" s="21"/>
       <c r="D141" s="22"/>
@@ -20397,7 +20417,7 @@
       <c r="BB141" s="31"/>
       <c r="BC141" s="32"/>
     </row>
-    <row r="142" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B142" s="20"/>
       <c r="C142" s="21"/>
       <c r="D142" s="22"/>
@@ -20453,7 +20473,7 @@
       <c r="BB142" s="31"/>
       <c r="BC142" s="32"/>
     </row>
-    <row r="143" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B143" s="20"/>
       <c r="C143" s="21"/>
       <c r="D143" s="22"/>
@@ -20509,7 +20529,7 @@
       <c r="BB143" s="31"/>
       <c r="BC143" s="32"/>
     </row>
-    <row r="144" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B144" s="20"/>
       <c r="C144" s="21"/>
       <c r="D144" s="22"/>
@@ -20565,7 +20585,7 @@
       <c r="BB144" s="31"/>
       <c r="BC144" s="32"/>
     </row>
-    <row r="145" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B145" s="20"/>
       <c r="C145" s="21"/>
       <c r="D145" s="22"/>
@@ -20621,7 +20641,7 @@
       <c r="BB145" s="31"/>
       <c r="BC145" s="32"/>
     </row>
-    <row r="146" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B146" s="20"/>
       <c r="C146" s="21"/>
       <c r="D146" s="22"/>
@@ -20677,7 +20697,7 @@
       <c r="BB146" s="31"/>
       <c r="BC146" s="32"/>
     </row>
-    <row r="147" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B147" s="20"/>
       <c r="C147" s="21"/>
       <c r="D147" s="22"/>
@@ -20733,7 +20753,7 @@
       <c r="BB147" s="31"/>
       <c r="BC147" s="32"/>
     </row>
-    <row r="148" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B148" s="20"/>
       <c r="C148" s="21"/>
       <c r="D148" s="22"/>
@@ -20789,7 +20809,7 @@
       <c r="BB148" s="31"/>
       <c r="BC148" s="32"/>
     </row>
-    <row r="149" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B149" s="20"/>
       <c r="C149" s="21"/>
       <c r="D149" s="22"/>
@@ -20845,7 +20865,7 @@
       <c r="BB149" s="31"/>
       <c r="BC149" s="32"/>
     </row>
-    <row r="150" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B150" s="20"/>
       <c r="C150" s="21"/>
       <c r="D150" s="22"/>
@@ -20901,7 +20921,7 @@
       <c r="BB150" s="31"/>
       <c r="BC150" s="32"/>
     </row>
-    <row r="151" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B151" s="20"/>
       <c r="C151" s="21"/>
       <c r="D151" s="22"/>
@@ -20957,7 +20977,7 @@
       <c r="BB151" s="31"/>
       <c r="BC151" s="32"/>
     </row>
-    <row r="152" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B152" s="20"/>
       <c r="C152" s="21"/>
       <c r="D152" s="22"/>
@@ -21013,7 +21033,7 @@
       <c r="BB152" s="31"/>
       <c r="BC152" s="32"/>
     </row>
-    <row r="153" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B153" s="20"/>
       <c r="C153" s="21"/>
       <c r="D153" s="22"/>
@@ -21069,7 +21089,7 @@
       <c r="BB153" s="31"/>
       <c r="BC153" s="32"/>
     </row>
-    <row r="154" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B154" s="20"/>
       <c r="C154" s="21"/>
       <c r="D154" s="22"/>
@@ -21125,7 +21145,7 @@
       <c r="BB154" s="31"/>
       <c r="BC154" s="32"/>
     </row>
-    <row r="155" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B155" s="20"/>
       <c r="C155" s="21"/>
       <c r="D155" s="22"/>
@@ -21181,7 +21201,7 @@
       <c r="BB155" s="31"/>
       <c r="BC155" s="32"/>
     </row>
-    <row r="156" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B156" s="20"/>
       <c r="C156" s="21"/>
       <c r="D156" s="22"/>
@@ -21237,7 +21257,7 @@
       <c r="BB156" s="31"/>
       <c r="BC156" s="32"/>
     </row>
-    <row r="157" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B157" s="20"/>
       <c r="C157" s="21"/>
       <c r="D157" s="22"/>
@@ -21293,7 +21313,7 @@
       <c r="BB157" s="31"/>
       <c r="BC157" s="32"/>
     </row>
-    <row r="158" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B158" s="20"/>
       <c r="C158" s="21"/>
       <c r="D158" s="22"/>
@@ -21349,7 +21369,7 @@
       <c r="BB158" s="31"/>
       <c r="BC158" s="32"/>
     </row>
-    <row r="159" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B159" s="20"/>
       <c r="C159" s="21"/>
       <c r="D159" s="22"/>
@@ -21405,7 +21425,7 @@
       <c r="BB159" s="31"/>
       <c r="BC159" s="32"/>
     </row>
-    <row r="160" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B160" s="20"/>
       <c r="C160" s="21"/>
       <c r="D160" s="22"/>
@@ -21461,7 +21481,7 @@
       <c r="BB160" s="31"/>
       <c r="BC160" s="32"/>
     </row>
-    <row r="161" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B161" s="20"/>
       <c r="C161" s="21"/>
       <c r="D161" s="22"/>
@@ -21517,7 +21537,7 @@
       <c r="BB161" s="31"/>
       <c r="BC161" s="32"/>
     </row>
-    <row r="162" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B162" s="20"/>
       <c r="C162" s="21"/>
       <c r="D162" s="22"/>
@@ -21573,7 +21593,7 @@
       <c r="BB162" s="31"/>
       <c r="BC162" s="32"/>
     </row>
-    <row r="163" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B163" s="20"/>
       <c r="C163" s="21"/>
       <c r="D163" s="22"/>
@@ -21629,7 +21649,7 @@
       <c r="BB163" s="31"/>
       <c r="BC163" s="32"/>
     </row>
-    <row r="164" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B164" s="20"/>
       <c r="C164" s="21"/>
       <c r="D164" s="22"/>
@@ -21685,7 +21705,7 @@
       <c r="BB164" s="31"/>
       <c r="BC164" s="32"/>
     </row>
-    <row r="165" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B165" s="20"/>
       <c r="C165" s="21"/>
       <c r="D165" s="22"/>
@@ -21741,7 +21761,7 @@
       <c r="BB165" s="31"/>
       <c r="BC165" s="32"/>
     </row>
-    <row r="166" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B166" s="20"/>
       <c r="C166" s="21"/>
       <c r="D166" s="22"/>
@@ -21797,7 +21817,7 @@
       <c r="BB166" s="31"/>
       <c r="BC166" s="32"/>
     </row>
-    <row r="167" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B167" s="20"/>
       <c r="C167" s="21"/>
       <c r="D167" s="22"/>
@@ -21852,7 +21872,7 @@
       <c r="BB167" s="31"/>
       <c r="BC167" s="32"/>
     </row>
-    <row r="168" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B168" s="20"/>
       <c r="C168" s="21"/>
       <c r="D168" s="22"/>
@@ -21902,7 +21922,7 @@
       <c r="BB168" s="31"/>
       <c r="BC168" s="32"/>
     </row>
-    <row r="169" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B169" s="20"/>
       <c r="C169" s="21"/>
       <c r="D169" s="22"/>
@@ -21952,7 +21972,7 @@
       <c r="BB169" s="31"/>
       <c r="BC169" s="32"/>
     </row>
-    <row r="170" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B170" s="20"/>
       <c r="C170" s="21"/>
       <c r="D170" s="22"/>
@@ -22002,7 +22022,7 @@
       <c r="BB170" s="31"/>
       <c r="BC170" s="32"/>
     </row>
-    <row r="171" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B171" s="20"/>
       <c r="C171" s="21"/>
       <c r="D171" s="22"/>
@@ -22051,7 +22071,7 @@
       <c r="BB171" s="31"/>
       <c r="BC171" s="32"/>
     </row>
-    <row r="172" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B172" s="20"/>
       <c r="C172" s="21"/>
       <c r="D172" s="22"/>
@@ -22090,7 +22110,7 @@
       <c r="BA172" s="30"/>
       <c r="BC172" s="32"/>
     </row>
-    <row r="173" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B173" s="20"/>
       <c r="C173" s="21"/>
       <c r="D173" s="22"/>
@@ -22114,7 +22134,7 @@
       <c r="AQ173" s="28"/>
       <c r="AR173" s="28"/>
     </row>
-    <row r="174" spans="2:55" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B174" s="20"/>
       <c r="C174" s="21"/>
       <c r="D174" s="22"/>
